--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -5,15 +5,15 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adaptable Samples\AdaptableSamples\CDSIndexPricer\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Source\Repos\adaptableblotter-demo\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31095" windowHeight="15045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31095" windowHeight="15045"/>
   </bookViews>
   <sheets>
-    <sheet name="CdsIndices" sheetId="2" r:id="rId1"/>
-    <sheet name="CDSIndexPrice" sheetId="3" r:id="rId2"/>
+    <sheet name="CDSIndexPrice" sheetId="3" r:id="rId1"/>
+    <sheet name="CdsIndices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2236,10 +2236,2489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>19.2573222284304</v>
+      </c>
+      <c r="J2">
+        <v>19.2573222284304</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42541</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(J2*1000)</f>
+        <v>19257.322228430399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3.3572760093665397</v>
+      </c>
+      <c r="J3">
+        <v>3.3572760093665397</v>
+      </c>
+      <c r="N3" s="1">
+        <v>42724</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q64" si="0">SUM(J3*1000)</f>
+        <v>3357.2760093665397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>3.8932974723849303</v>
+      </c>
+      <c r="J4">
+        <v>3.8932974723849303</v>
+      </c>
+      <c r="N4" s="1">
+        <v>42906</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3893.2974723849302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>7.9378313177125204</v>
+      </c>
+      <c r="J5">
+        <v>7.9378313177125204</v>
+      </c>
+      <c r="N5" s="1">
+        <v>43089</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>7937.8313177125201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>7.6443065583720804</v>
+      </c>
+      <c r="J6">
+        <v>7.6443065583720804</v>
+      </c>
+      <c r="N6" s="1">
+        <v>43271</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>7644.30655837208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>8.0732337492083293</v>
+      </c>
+      <c r="J7">
+        <v>8.0732337492083293</v>
+      </c>
+      <c r="N7" s="1">
+        <v>43454</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>8073.2337492083288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>18.575812070809</v>
+      </c>
+      <c r="F8">
+        <v>8.9669483942607204</v>
+      </c>
+      <c r="I8">
+        <v>18.575812070809</v>
+      </c>
+      <c r="J8">
+        <v>8.9669483942607204</v>
+      </c>
+      <c r="M8" s="1">
+        <v>42541</v>
+      </c>
+      <c r="N8" s="1">
+        <v>43636</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>8966.9483942607203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>11.523179652459401</v>
+      </c>
+      <c r="F9">
+        <v>9.5591827792198298</v>
+      </c>
+      <c r="I9">
+        <v>11.523179652459401</v>
+      </c>
+      <c r="J9">
+        <v>9.5591827792198298</v>
+      </c>
+      <c r="M9" s="1">
+        <v>42724</v>
+      </c>
+      <c r="N9" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>9559.1827792198292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>8.6637215685837194</v>
+      </c>
+      <c r="F10">
+        <v>10.0266775099309</v>
+      </c>
+      <c r="I10">
+        <v>8.6637215685837194</v>
+      </c>
+      <c r="J10">
+        <v>10.0266775099309</v>
+      </c>
+      <c r="M10" s="1">
+        <v>42906</v>
+      </c>
+      <c r="N10" s="1">
+        <v>44002</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>10026.6775099309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>8.2665276660324984</v>
+      </c>
+      <c r="F11">
+        <v>10.6956033565501</v>
+      </c>
+      <c r="I11">
+        <v>8.2665276660324984</v>
+      </c>
+      <c r="J11">
+        <v>10.6956033565501</v>
+      </c>
+      <c r="M11" s="1">
+        <v>43089</v>
+      </c>
+      <c r="N11" s="1">
+        <v>44185</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10695.6033565501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>18.3544511436675</v>
+      </c>
+      <c r="E12">
+        <v>7.9436362364501205</v>
+      </c>
+      <c r="F12">
+        <v>11.2424350131678</v>
+      </c>
+      <c r="H12">
+        <v>18.3544511436675</v>
+      </c>
+      <c r="I12">
+        <v>7.9436362364501205</v>
+      </c>
+      <c r="J12">
+        <v>11.2424350131678</v>
+      </c>
+      <c r="L12" s="1">
+        <v>42541</v>
+      </c>
+      <c r="M12" s="1">
+        <v>43271</v>
+      </c>
+      <c r="N12" s="1">
+        <v>44367</v>
+      </c>
+      <c r="O12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11242.4350131678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>2.9412638892013998</v>
+      </c>
+      <c r="E13">
+        <v>6.08220624781959</v>
+      </c>
+      <c r="F13">
+        <v>10.504423964823799</v>
+      </c>
+      <c r="H13">
+        <v>2.9412638892013998</v>
+      </c>
+      <c r="I13">
+        <v>6.08220624781959</v>
+      </c>
+      <c r="J13">
+        <v>10.504423964823799</v>
+      </c>
+      <c r="L13" s="1">
+        <v>42724</v>
+      </c>
+      <c r="M13" s="1">
+        <v>43454</v>
+      </c>
+      <c r="N13" s="1">
+        <v>44550</v>
+      </c>
+      <c r="O13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>10504.423964823798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>3.3479033836787102</v>
+      </c>
+      <c r="E14">
+        <v>6.3256273300072703</v>
+      </c>
+      <c r="F14">
+        <v>10.5483887500574</v>
+      </c>
+      <c r="H14">
+        <v>3.3479033836787102</v>
+      </c>
+      <c r="I14">
+        <v>6.3256273300072703</v>
+      </c>
+      <c r="J14">
+        <v>10.5483887500574</v>
+      </c>
+      <c r="L14" s="1">
+        <v>42906</v>
+      </c>
+      <c r="M14" s="1">
+        <v>43636</v>
+      </c>
+      <c r="N14" s="1">
+        <v>44732</v>
+      </c>
+      <c r="O14" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>10548.3887500574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>3.9662655812541403</v>
+      </c>
+      <c r="E15">
+        <v>6.8580123925151497</v>
+      </c>
+      <c r="F15">
+        <v>10.674582225699</v>
+      </c>
+      <c r="H15">
+        <v>3.9662655812541403</v>
+      </c>
+      <c r="I15">
+        <v>6.8580123925151497</v>
+      </c>
+      <c r="J15">
+        <v>10.674582225699</v>
+      </c>
+      <c r="L15" s="1">
+        <v>43089</v>
+      </c>
+      <c r="M15" s="1">
+        <v>43819</v>
+      </c>
+      <c r="N15" s="1">
+        <v>44915</v>
+      </c>
+      <c r="O15" t="s">
+        <v>235</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>10674.582225699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2.3871647004408598</v>
+      </c>
+      <c r="D16">
+        <v>4.47134089828009</v>
+      </c>
+      <c r="E16">
+        <v>7.5006179255964005</v>
+      </c>
+      <c r="F16">
+        <v>11.029918561054</v>
+      </c>
+      <c r="G16">
+        <v>2.3871647004408598</v>
+      </c>
+      <c r="H16">
+        <v>4.47134089828009</v>
+      </c>
+      <c r="I16">
+        <v>7.5006179255964005</v>
+      </c>
+      <c r="J16">
+        <v>11.029918561054</v>
+      </c>
+      <c r="K16" s="1">
+        <v>42541</v>
+      </c>
+      <c r="L16" s="1">
+        <v>43271</v>
+      </c>
+      <c r="M16" s="1">
+        <v>44002</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45097</v>
+      </c>
+      <c r="O16" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>11029.918561054001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2.3008679783216301</v>
+      </c>
+      <c r="D17">
+        <v>5.16461924617417</v>
+      </c>
+      <c r="E17">
+        <v>8.0742284983667609</v>
+      </c>
+      <c r="F17">
+        <v>11.0430487013984</v>
+      </c>
+      <c r="G17">
+        <v>2.3008679783216301</v>
+      </c>
+      <c r="H17">
+        <v>5.16461924617417</v>
+      </c>
+      <c r="I17">
+        <v>8.0742284983667609</v>
+      </c>
+      <c r="J17">
+        <v>11.0430487013984</v>
+      </c>
+      <c r="K17" s="1">
+        <v>42724</v>
+      </c>
+      <c r="L17" s="1">
+        <v>43454</v>
+      </c>
+      <c r="M17" s="1">
+        <v>44185</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45280</v>
+      </c>
+      <c r="O17" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>11043.0487013984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2.8506258795824699</v>
+      </c>
+      <c r="D18">
+        <v>5.7231622029115101</v>
+      </c>
+      <c r="E18">
+        <v>8.7157416118066813</v>
+      </c>
+      <c r="F18">
+        <v>11.312732254324001</v>
+      </c>
+      <c r="G18">
+        <v>2.8506258795824699</v>
+      </c>
+      <c r="H18">
+        <v>5.7231622029115101</v>
+      </c>
+      <c r="I18">
+        <v>8.7157416118066813</v>
+      </c>
+      <c r="J18">
+        <v>11.312732254324001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>42906</v>
+      </c>
+      <c r="L18" s="1">
+        <v>43636</v>
+      </c>
+      <c r="M18" s="1">
+        <v>44367</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45463</v>
+      </c>
+      <c r="O18" t="s">
+        <v>309</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>11312.732254324001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>3.9613422155401494</v>
+      </c>
+      <c r="D19">
+        <v>6.8268314239689296</v>
+      </c>
+      <c r="E19">
+        <v>9.6739497290443097</v>
+      </c>
+      <c r="F19">
+        <v>11.8827810987496</v>
+      </c>
+      <c r="G19">
+        <v>3.9613422155401494</v>
+      </c>
+      <c r="H19">
+        <v>6.8268314239689296</v>
+      </c>
+      <c r="I19">
+        <v>9.6739497290443097</v>
+      </c>
+      <c r="J19">
+        <v>11.8827810987496</v>
+      </c>
+      <c r="K19" s="1">
+        <v>43089</v>
+      </c>
+      <c r="L19" s="1">
+        <v>43819</v>
+      </c>
+      <c r="M19" s="1">
+        <v>44550</v>
+      </c>
+      <c r="N19" s="1">
+        <v>45646</v>
+      </c>
+      <c r="O19" t="s">
+        <v>322</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>11882.7810987496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>4.5758539628816894</v>
+      </c>
+      <c r="D20">
+        <v>7.6117267090422702</v>
+      </c>
+      <c r="E20">
+        <v>10.362332080842199</v>
+      </c>
+      <c r="F20">
+        <v>12.221811706860001</v>
+      </c>
+      <c r="G20">
+        <v>4.5758539628816894</v>
+      </c>
+      <c r="H20">
+        <v>7.6117267090422702</v>
+      </c>
+      <c r="I20">
+        <v>10.362332080842199</v>
+      </c>
+      <c r="J20">
+        <v>12.221811706860001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>43271</v>
+      </c>
+      <c r="L20" s="1">
+        <v>44002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>44732</v>
+      </c>
+      <c r="N20" s="1">
+        <v>45828</v>
+      </c>
+      <c r="O20" t="s">
+        <v>332</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>12221.81170686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>5.2784380822277006</v>
+      </c>
+      <c r="D21">
+        <v>8.1795991320831796</v>
+      </c>
+      <c r="E21">
+        <v>10.478797928270801</v>
+      </c>
+      <c r="F21">
+        <v>12.024427684104499</v>
+      </c>
+      <c r="G21">
+        <v>5.2784380822277006</v>
+      </c>
+      <c r="H21">
+        <v>8.1795991320831796</v>
+      </c>
+      <c r="I21">
+        <v>10.478797928270801</v>
+      </c>
+      <c r="J21">
+        <v>12.024427684104499</v>
+      </c>
+      <c r="K21" s="1">
+        <v>43454</v>
+      </c>
+      <c r="L21" s="1">
+        <v>44185</v>
+      </c>
+      <c r="M21" s="1">
+        <v>44915</v>
+      </c>
+      <c r="N21" s="1">
+        <v>46011</v>
+      </c>
+      <c r="O21" t="s">
+        <v>353</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>12024.427684104499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>5.3382030293634495</v>
+      </c>
+      <c r="D22">
+        <v>8.2169150200522996</v>
+      </c>
+      <c r="E22">
+        <v>10.248835845591401</v>
+      </c>
+      <c r="F22">
+        <v>11.6158495524187</v>
+      </c>
+      <c r="G22">
+        <v>5.3382030293634495</v>
+      </c>
+      <c r="H22">
+        <v>8.2169150200522996</v>
+      </c>
+      <c r="I22">
+        <v>10.248835845591401</v>
+      </c>
+      <c r="J22">
+        <v>11.6158495524187</v>
+      </c>
+      <c r="K22" s="1">
+        <v>43636</v>
+      </c>
+      <c r="L22" s="1">
+        <v>44367</v>
+      </c>
+      <c r="M22" s="1">
+        <v>45097</v>
+      </c>
+      <c r="N22" s="1">
+        <v>46193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>373</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>11615.8495524187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>16.762176684112898</v>
+      </c>
+      <c r="J23">
+        <v>16.762176684112898</v>
+      </c>
+      <c r="N23" s="1">
+        <v>42541</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>16762.176684112899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>16.352083006237898</v>
+      </c>
+      <c r="J24">
+        <v>16.352083006237898</v>
+      </c>
+      <c r="N24" s="1">
+        <v>42724</v>
+      </c>
+      <c r="O24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>16352.083006237897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>17.1691599807572</v>
+      </c>
+      <c r="J25">
+        <v>17.1691599807572</v>
+      </c>
+      <c r="N25" s="1">
+        <v>42906</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>17169.159980757202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>15.133715498388</v>
+      </c>
+      <c r="J26">
+        <v>15.133715498388</v>
+      </c>
+      <c r="N26" s="1">
+        <v>43089</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>15133.715498387999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>14.5966815883772</v>
+      </c>
+      <c r="J27">
+        <v>14.5966815883772</v>
+      </c>
+      <c r="N27" s="1">
+        <v>43271</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>14596.6815883772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>15.318000343827</v>
+      </c>
+      <c r="J28">
+        <v>15.318000343827</v>
+      </c>
+      <c r="N28" s="1">
+        <v>43454</v>
+      </c>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>15318.000343827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>15.7705204417062</v>
+      </c>
+      <c r="J29">
+        <v>15.7705204417062</v>
+      </c>
+      <c r="N29" s="1">
+        <v>43636</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>15770.5204417062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>16.608422765010101</v>
+      </c>
+      <c r="J30">
+        <v>16.608422765010101</v>
+      </c>
+      <c r="N30" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>16608.422765010102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>17.201294284503501</v>
+      </c>
+      <c r="J31">
+        <v>17.201294284503501</v>
+      </c>
+      <c r="N31" s="1">
+        <v>44002</v>
+      </c>
+      <c r="O31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>17201.2942845035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>18.003898135358899</v>
+      </c>
+      <c r="J32">
+        <v>18.003898135358899</v>
+      </c>
+      <c r="N32" s="1">
+        <v>44185</v>
+      </c>
+      <c r="O32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>18003.898135358897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>13.592890803289501</v>
+      </c>
+      <c r="F33">
+        <v>19.375103737605698</v>
+      </c>
+      <c r="H33">
+        <v>13.592890803289501</v>
+      </c>
+      <c r="J33">
+        <v>19.375103737605698</v>
+      </c>
+      <c r="L33" s="1">
+        <v>42541</v>
+      </c>
+      <c r="N33" s="1">
+        <v>44367</v>
+      </c>
+      <c r="O33" t="s">
+        <v>146</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>19375.103737605699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>13.4574161648928</v>
+      </c>
+      <c r="F34">
+        <v>19.721883159208602</v>
+      </c>
+      <c r="H34">
+        <v>13.4574161648928</v>
+      </c>
+      <c r="J34">
+        <v>19.721883159208602</v>
+      </c>
+      <c r="L34" s="1">
+        <v>42724</v>
+      </c>
+      <c r="N34" s="1">
+        <v>44550</v>
+      </c>
+      <c r="O34" t="s">
+        <v>166</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>19721.883159208603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>13.7881923405879</v>
+      </c>
+      <c r="F35">
+        <v>19.520180242482002</v>
+      </c>
+      <c r="H35">
+        <v>13.7881923405879</v>
+      </c>
+      <c r="J35">
+        <v>19.520180242482002</v>
+      </c>
+      <c r="L35" s="1">
+        <v>42906</v>
+      </c>
+      <c r="N35" s="1">
+        <v>44732</v>
+      </c>
+      <c r="O35" t="s">
+        <v>201</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>19520.180242482002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>10.9369236073788</v>
+      </c>
+      <c r="F36">
+        <v>17.828941286516997</v>
+      </c>
+      <c r="H36">
+        <v>10.9369236073788</v>
+      </c>
+      <c r="J36">
+        <v>17.828941286516997</v>
+      </c>
+      <c r="L36" s="1">
+        <v>43089</v>
+      </c>
+      <c r="N36" s="1">
+        <v>44915</v>
+      </c>
+      <c r="O36" t="s">
+        <v>228</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>17828.941286516998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>11.5059615771387</v>
+      </c>
+      <c r="F37">
+        <v>18.233382329358701</v>
+      </c>
+      <c r="H37">
+        <v>11.5059615771387</v>
+      </c>
+      <c r="J37">
+        <v>18.233382329358701</v>
+      </c>
+      <c r="L37" s="1">
+        <v>43271</v>
+      </c>
+      <c r="N37" s="1">
+        <v>45097</v>
+      </c>
+      <c r="O37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>18233.382329358701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>12.4383366258868</v>
+      </c>
+      <c r="F38">
+        <v>18.530041354994498</v>
+      </c>
+      <c r="H38">
+        <v>12.4383366258868</v>
+      </c>
+      <c r="J38">
+        <v>18.530041354994498</v>
+      </c>
+      <c r="L38" s="1">
+        <v>43454</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>257</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>18530.041354994497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>13.5312434744312</v>
+      </c>
+      <c r="F39">
+        <v>19.710839247129599</v>
+      </c>
+      <c r="H39">
+        <v>13.5312434744312</v>
+      </c>
+      <c r="J39">
+        <v>19.710839247129599</v>
+      </c>
+      <c r="L39" s="1">
+        <v>43636</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45463</v>
+      </c>
+      <c r="O39" t="s">
+        <v>306</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>19710.839247129599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>17.746969433875801</v>
+      </c>
+      <c r="F40">
+        <v>23.595781246696802</v>
+      </c>
+      <c r="H40">
+        <v>17.746969433875801</v>
+      </c>
+      <c r="J40">
+        <v>23.595781246696802</v>
+      </c>
+      <c r="L40" s="1">
+        <v>43819</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45646</v>
+      </c>
+      <c r="O40" t="s">
+        <v>319</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>23595.781246696803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>18.024055481121</v>
+      </c>
+      <c r="F41">
+        <v>23.063298962914899</v>
+      </c>
+      <c r="H41">
+        <v>18.024055481121</v>
+      </c>
+      <c r="J41">
+        <v>23.063298962914899</v>
+      </c>
+      <c r="L41" s="1">
+        <v>44002</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45828</v>
+      </c>
+      <c r="O41" t="s">
+        <v>342</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>23063.298962914898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>19.275120404733002</v>
+      </c>
+      <c r="F42">
+        <v>23.484013417330299</v>
+      </c>
+      <c r="H42">
+        <v>19.275120404733002</v>
+      </c>
+      <c r="J42">
+        <v>23.484013417330299</v>
+      </c>
+      <c r="L42" s="1">
+        <v>44185</v>
+      </c>
+      <c r="N42" s="1">
+        <v>46011</v>
+      </c>
+      <c r="O42" t="s">
+        <v>350</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>23484.013417330298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>20.1418255711305</v>
+      </c>
+      <c r="F43">
+        <v>23.629506509741301</v>
+      </c>
+      <c r="H43">
+        <v>20.1418255711305</v>
+      </c>
+      <c r="J43">
+        <v>23.629506509741301</v>
+      </c>
+      <c r="L43" s="1">
+        <v>44367</v>
+      </c>
+      <c r="N43" s="1">
+        <v>46193</v>
+      </c>
+      <c r="O43" t="s">
+        <v>378</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>23629.506509741303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5.1629487434540895</v>
+      </c>
+      <c r="J44">
+        <v>5.1629487434540895</v>
+      </c>
+      <c r="N44" s="1">
+        <v>42541</v>
+      </c>
+      <c r="O44" t="s">
+        <v>226</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>5162.9487434540897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>32.839270998436803</v>
+      </c>
+      <c r="J45">
+        <v>32.839270998436803</v>
+      </c>
+      <c r="N45" s="1">
+        <v>42724</v>
+      </c>
+      <c r="O45" t="s">
+        <v>224</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>32839.270998436805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>22.280446250236398</v>
+      </c>
+      <c r="J46">
+        <v>22.280446250236398</v>
+      </c>
+      <c r="N46" s="1">
+        <v>42906</v>
+      </c>
+      <c r="O46" t="s">
+        <v>386</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>22280.446250236397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>9.4297803653687886</v>
+      </c>
+      <c r="J47">
+        <v>9.4297803653687886</v>
+      </c>
+      <c r="N47" s="1">
+        <v>43089</v>
+      </c>
+      <c r="O47" t="s">
+        <v>388</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>9429.7803653687879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>10.3991866825413</v>
+      </c>
+      <c r="J48">
+        <v>10.3991866825413</v>
+      </c>
+      <c r="N48" s="1">
+        <v>43271</v>
+      </c>
+      <c r="O48" t="s">
+        <v>390</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>10399.1866825413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>10.239524342385</v>
+      </c>
+      <c r="J49">
+        <v>10.239524342385</v>
+      </c>
+      <c r="N49" s="1">
+        <v>43454</v>
+      </c>
+      <c r="O49" t="s">
+        <v>392</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>10239.524342385001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>4.7635605439084001</v>
+      </c>
+      <c r="F50">
+        <v>11.254743616956501</v>
+      </c>
+      <c r="I50">
+        <v>4.7635605439084001</v>
+      </c>
+      <c r="J50">
+        <v>11.254743616956501</v>
+      </c>
+      <c r="M50" s="1">
+        <v>42541</v>
+      </c>
+      <c r="N50" s="1">
+        <v>43636</v>
+      </c>
+      <c r="O50" t="s">
+        <v>394</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>11254.743616956501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>4.4447043154008705</v>
+      </c>
+      <c r="F51">
+        <v>11.655220461253601</v>
+      </c>
+      <c r="I51">
+        <v>4.4447043154008705</v>
+      </c>
+      <c r="J51">
+        <v>11.655220461253601</v>
+      </c>
+      <c r="M51" s="1">
+        <v>42724</v>
+      </c>
+      <c r="N51" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O51" t="s">
+        <v>397</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>11655.220461253601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>5.4709872003982198</v>
+      </c>
+      <c r="F52">
+        <v>12.746243096909399</v>
+      </c>
+      <c r="I52">
+        <v>5.4709872003982198</v>
+      </c>
+      <c r="J52">
+        <v>12.746243096909399</v>
+      </c>
+      <c r="M52" s="1">
+        <v>42906</v>
+      </c>
+      <c r="N52" s="1">
+        <v>44002</v>
+      </c>
+      <c r="O52" t="s">
+        <v>400</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>12746.2430969094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>9.3406346004401808</v>
+      </c>
+      <c r="F53">
+        <v>16.6665641532155</v>
+      </c>
+      <c r="I53">
+        <v>9.3406346004401808</v>
+      </c>
+      <c r="J53">
+        <v>16.6665641532155</v>
+      </c>
+      <c r="M53" s="1">
+        <v>43089</v>
+      </c>
+      <c r="N53" s="1">
+        <v>44185</v>
+      </c>
+      <c r="O53" t="s">
+        <v>403</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>16666.564153215499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>5.7709706702955303</v>
+      </c>
+      <c r="E54">
+        <v>10.580973294879399</v>
+      </c>
+      <c r="F54">
+        <v>18.3510735507809</v>
+      </c>
+      <c r="H54">
+        <v>5.7709706702955303</v>
+      </c>
+      <c r="I54">
+        <v>10.580973294879399</v>
+      </c>
+      <c r="J54">
+        <v>18.3510735507809</v>
+      </c>
+      <c r="L54" s="1">
+        <v>42541</v>
+      </c>
+      <c r="M54" s="1">
+        <v>43271</v>
+      </c>
+      <c r="N54" s="1">
+        <v>44367</v>
+      </c>
+      <c r="O54" t="s">
+        <v>406</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>18351.0735507809</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>28.551658240970099</v>
+      </c>
+      <c r="E55">
+        <v>19.206548458349602</v>
+      </c>
+      <c r="F55">
+        <v>23.392697512985801</v>
+      </c>
+      <c r="H55">
+        <v>28.551658240970099</v>
+      </c>
+      <c r="I55">
+        <v>19.206548458349602</v>
+      </c>
+      <c r="J55">
+        <v>23.392697512985801</v>
+      </c>
+      <c r="L55" s="1">
+        <v>42724</v>
+      </c>
+      <c r="M55" s="1">
+        <v>43454</v>
+      </c>
+      <c r="N55" s="1">
+        <v>44550</v>
+      </c>
+      <c r="O55" t="s">
+        <v>410</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>23392.6975129858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>20.136743892499499</v>
+      </c>
+      <c r="E56">
+        <v>19.1003887053207</v>
+      </c>
+      <c r="F56">
+        <v>24.124069911757097</v>
+      </c>
+      <c r="H56">
+        <v>20.136743892499499</v>
+      </c>
+      <c r="I56">
+        <v>19.1003887053207</v>
+      </c>
+      <c r="J56">
+        <v>24.124069911757097</v>
+      </c>
+      <c r="L56" s="1">
+        <v>42906</v>
+      </c>
+      <c r="M56" s="1">
+        <v>43636</v>
+      </c>
+      <c r="N56" s="1">
+        <v>44732</v>
+      </c>
+      <c r="O56" t="s">
+        <v>414</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>24124.069911757098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>18.800390102747599</v>
+      </c>
+      <c r="E57">
+        <v>20.315327830662302</v>
+      </c>
+      <c r="F57">
+        <v>25.179490579065302</v>
+      </c>
+      <c r="H57">
+        <v>18.800390102747599</v>
+      </c>
+      <c r="I57">
+        <v>20.315327830662302</v>
+      </c>
+      <c r="J57">
+        <v>25.179490579065302</v>
+      </c>
+      <c r="L57" s="1">
+        <v>43089</v>
+      </c>
+      <c r="M57" s="1">
+        <v>43819</v>
+      </c>
+      <c r="N57" s="1">
+        <v>44915</v>
+      </c>
+      <c r="O57" t="s">
+        <v>418</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>25179.490579065303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>46.3110811536067</v>
+      </c>
+      <c r="D58">
+        <v>18.439889666227501</v>
+      </c>
+      <c r="E58">
+        <v>21.629221291661501</v>
+      </c>
+      <c r="F58">
+        <v>26.521784043093298</v>
+      </c>
+      <c r="G58">
+        <v>46.3110811536067</v>
+      </c>
+      <c r="H58">
+        <v>18.439889666227501</v>
+      </c>
+      <c r="I58">
+        <v>21.629221291661501</v>
+      </c>
+      <c r="J58">
+        <v>26.521784043093298</v>
+      </c>
+      <c r="K58" s="1">
+        <v>42541</v>
+      </c>
+      <c r="L58" s="1">
+        <v>43271</v>
+      </c>
+      <c r="M58" s="1">
+        <v>44002</v>
+      </c>
+      <c r="N58" s="1">
+        <v>45097</v>
+      </c>
+      <c r="O58" t="s">
+        <v>422</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>26521.784043093299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>27.213066382189002</v>
+      </c>
+      <c r="D59">
+        <v>18.6643067918634</v>
+      </c>
+      <c r="E59">
+        <v>22.1356433941157</v>
+      </c>
+      <c r="F59">
+        <v>26.152342395283497</v>
+      </c>
+      <c r="G59">
+        <v>27.213066382189002</v>
+      </c>
+      <c r="H59">
+        <v>18.6643067918634</v>
+      </c>
+      <c r="I59">
+        <v>22.1356433941157</v>
+      </c>
+      <c r="J59">
+        <v>26.152342395283497</v>
+      </c>
+      <c r="K59" s="1">
+        <v>42724</v>
+      </c>
+      <c r="L59" s="1">
+        <v>43454</v>
+      </c>
+      <c r="M59" s="1">
+        <v>44185</v>
+      </c>
+      <c r="N59" s="1">
+        <v>45280</v>
+      </c>
+      <c r="O59" t="s">
+        <v>427</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>26152.342395283496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>19.101344458068102</v>
+      </c>
+      <c r="D60">
+        <v>20.561585272955</v>
+      </c>
+      <c r="E60">
+        <v>25.329595479434399</v>
+      </c>
+      <c r="F60">
+        <v>29.1427581174365</v>
+      </c>
+      <c r="G60">
+        <v>19.101344458068102</v>
+      </c>
+      <c r="H60">
+        <v>20.561585272955</v>
+      </c>
+      <c r="I60">
+        <v>25.329595479434399</v>
+      </c>
+      <c r="J60">
+        <v>29.1427581174365</v>
+      </c>
+      <c r="K60" s="1">
+        <v>42906</v>
+      </c>
+      <c r="L60" s="1">
+        <v>43636</v>
+      </c>
+      <c r="M60" s="1">
+        <v>44367</v>
+      </c>
+      <c r="N60" s="1">
+        <v>45463</v>
+      </c>
+      <c r="O60" t="s">
+        <v>432</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>29142.7581174365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>22</v>
+      </c>
+      <c r="C61">
+        <v>31.477241335471398</v>
+      </c>
+      <c r="D61">
+        <v>33.671394520166203</v>
+      </c>
+      <c r="E61">
+        <v>37.675516712142098</v>
+      </c>
+      <c r="F61">
+        <v>39.6050466383792</v>
+      </c>
+      <c r="G61">
+        <v>31.477241335471398</v>
+      </c>
+      <c r="H61">
+        <v>33.671394520166203</v>
+      </c>
+      <c r="I61">
+        <v>37.675516712142098</v>
+      </c>
+      <c r="J61">
+        <v>39.6050466383792</v>
+      </c>
+      <c r="K61" s="1">
+        <v>43089</v>
+      </c>
+      <c r="L61" s="1">
+        <v>43819</v>
+      </c>
+      <c r="M61" s="1">
+        <v>44550</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45646</v>
+      </c>
+      <c r="O61" t="s">
+        <v>437</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>39605.046638379201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>29.1046724309771</v>
+      </c>
+      <c r="D62">
+        <v>33.625608887559402</v>
+      </c>
+      <c r="E62">
+        <v>37.586231495436898</v>
+      </c>
+      <c r="F62">
+        <v>39.213639350885899</v>
+      </c>
+      <c r="G62">
+        <v>29.1046724309771</v>
+      </c>
+      <c r="H62">
+        <v>33.625608887559402</v>
+      </c>
+      <c r="I62">
+        <v>37.586231495436898</v>
+      </c>
+      <c r="J62">
+        <v>39.213639350885899</v>
+      </c>
+      <c r="K62" s="1">
+        <v>43271</v>
+      </c>
+      <c r="L62" s="1">
+        <v>44002</v>
+      </c>
+      <c r="M62" s="1">
+        <v>44732</v>
+      </c>
+      <c r="N62" s="1">
+        <v>45828</v>
+      </c>
+      <c r="O62" t="s">
+        <v>442</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>39213.639350885896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>31.002650369005099</v>
+      </c>
+      <c r="D63">
+        <v>36.077238364814697</v>
+      </c>
+      <c r="E63">
+        <v>39.459153635906603</v>
+      </c>
+      <c r="F63">
+        <v>40.798601403784197</v>
+      </c>
+      <c r="G63">
+        <v>31.002650369005099</v>
+      </c>
+      <c r="H63">
+        <v>36.077238364814697</v>
+      </c>
+      <c r="I63">
+        <v>39.459153635906603</v>
+      </c>
+      <c r="J63">
+        <v>40.798601403784197</v>
+      </c>
+      <c r="K63" s="1">
+        <v>43454</v>
+      </c>
+      <c r="L63" s="1">
+        <v>44185</v>
+      </c>
+      <c r="M63" s="1">
+        <v>44915</v>
+      </c>
+      <c r="N63" s="1">
+        <v>46011</v>
+      </c>
+      <c r="O63" t="s">
+        <v>345</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>40798.601403784196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>25.993098648778403</v>
+      </c>
+      <c r="D64">
+        <v>33.918175338510295</v>
+      </c>
+      <c r="E64">
+        <v>37.452195485304401</v>
+      </c>
+      <c r="F64">
+        <v>39.074227505774097</v>
+      </c>
+      <c r="G64">
+        <v>25.993098648778403</v>
+      </c>
+      <c r="H64">
+        <v>33.918175338510295</v>
+      </c>
+      <c r="I64">
+        <v>37.452195485304401</v>
+      </c>
+      <c r="J64">
+        <v>39.074227505774097</v>
+      </c>
+      <c r="K64" s="1">
+        <v>43636</v>
+      </c>
+      <c r="L64" s="1">
+        <v>44367</v>
+      </c>
+      <c r="M64" s="1">
+        <v>45097</v>
+      </c>
+      <c r="N64" s="1">
+        <v>46193</v>
+      </c>
+      <c r="O64" t="s">
+        <v>381</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>39074.227505774099</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:Q64">
+    <sortCondition ref="A1:A64"/>
+    <sortCondition ref="B1:B64"/>
+    <sortCondition ref="C1:C64"/>
+    <sortCondition ref="D1:D64"/>
+    <sortCondition ref="E1:E64"/>
+    <sortCondition ref="F1:F64"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11417,2483 +13896,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>19.2573222284304</v>
-      </c>
-      <c r="J2">
-        <v>19.2573222284304</v>
-      </c>
-      <c r="N2" s="1">
-        <v>42541</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>SUM(J2*1000)</f>
-        <v>19257.322228430399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>3.3572760093665397</v>
-      </c>
-      <c r="J3">
-        <v>3.3572760093665397</v>
-      </c>
-      <c r="N3" s="1">
-        <v>42724</v>
-      </c>
-      <c r="O3" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q64" si="0">SUM(J3*1000)</f>
-        <v>3357.2760093665397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>3.8932974723849303</v>
-      </c>
-      <c r="J4">
-        <v>3.8932974723849303</v>
-      </c>
-      <c r="N4" s="1">
-        <v>42906</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>3893.2974723849302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>7.9378313177125204</v>
-      </c>
-      <c r="J5">
-        <v>7.9378313177125204</v>
-      </c>
-      <c r="N5" s="1">
-        <v>43089</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>7937.8313177125201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>7.6443065583720804</v>
-      </c>
-      <c r="J6">
-        <v>7.6443065583720804</v>
-      </c>
-      <c r="N6" s="1">
-        <v>43271</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>7644.30655837208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>8.0732337492083293</v>
-      </c>
-      <c r="J7">
-        <v>8.0732337492083293</v>
-      </c>
-      <c r="N7" s="1">
-        <v>43454</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>8073.2337492083288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>18.575812070809</v>
-      </c>
-      <c r="F8">
-        <v>8.9669483942607204</v>
-      </c>
-      <c r="I8">
-        <v>18.575812070809</v>
-      </c>
-      <c r="J8">
-        <v>8.9669483942607204</v>
-      </c>
-      <c r="M8" s="1">
-        <v>42541</v>
-      </c>
-      <c r="N8" s="1">
-        <v>43636</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>8966.9483942607203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>11.523179652459401</v>
-      </c>
-      <c r="F9">
-        <v>9.5591827792198298</v>
-      </c>
-      <c r="I9">
-        <v>11.523179652459401</v>
-      </c>
-      <c r="J9">
-        <v>9.5591827792198298</v>
-      </c>
-      <c r="M9" s="1">
-        <v>42724</v>
-      </c>
-      <c r="N9" s="1">
-        <v>43819</v>
-      </c>
-      <c r="O9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>9559.1827792198292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>8.6637215685837194</v>
-      </c>
-      <c r="F10">
-        <v>10.0266775099309</v>
-      </c>
-      <c r="I10">
-        <v>8.6637215685837194</v>
-      </c>
-      <c r="J10">
-        <v>10.0266775099309</v>
-      </c>
-      <c r="M10" s="1">
-        <v>42906</v>
-      </c>
-      <c r="N10" s="1">
-        <v>44002</v>
-      </c>
-      <c r="O10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>10026.6775099309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>8.2665276660324984</v>
-      </c>
-      <c r="F11">
-        <v>10.6956033565501</v>
-      </c>
-      <c r="I11">
-        <v>8.2665276660324984</v>
-      </c>
-      <c r="J11">
-        <v>10.6956033565501</v>
-      </c>
-      <c r="M11" s="1">
-        <v>43089</v>
-      </c>
-      <c r="N11" s="1">
-        <v>44185</v>
-      </c>
-      <c r="O11" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>10695.6033565501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>18.3544511436675</v>
-      </c>
-      <c r="E12">
-        <v>7.9436362364501205</v>
-      </c>
-      <c r="F12">
-        <v>11.2424350131678</v>
-      </c>
-      <c r="H12">
-        <v>18.3544511436675</v>
-      </c>
-      <c r="I12">
-        <v>7.9436362364501205</v>
-      </c>
-      <c r="J12">
-        <v>11.2424350131678</v>
-      </c>
-      <c r="L12" s="1">
-        <v>42541</v>
-      </c>
-      <c r="M12" s="1">
-        <v>43271</v>
-      </c>
-      <c r="N12" s="1">
-        <v>44367</v>
-      </c>
-      <c r="O12" t="s">
-        <v>142</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>11242.4350131678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>2.9412638892013998</v>
-      </c>
-      <c r="E13">
-        <v>6.08220624781959</v>
-      </c>
-      <c r="F13">
-        <v>10.504423964823799</v>
-      </c>
-      <c r="H13">
-        <v>2.9412638892013998</v>
-      </c>
-      <c r="I13">
-        <v>6.08220624781959</v>
-      </c>
-      <c r="J13">
-        <v>10.504423964823799</v>
-      </c>
-      <c r="L13" s="1">
-        <v>42724</v>
-      </c>
-      <c r="M13" s="1">
-        <v>43454</v>
-      </c>
-      <c r="N13" s="1">
-        <v>44550</v>
-      </c>
-      <c r="O13" t="s">
-        <v>158</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>10504.423964823798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>3.3479033836787102</v>
-      </c>
-      <c r="E14">
-        <v>6.3256273300072703</v>
-      </c>
-      <c r="F14">
-        <v>10.5483887500574</v>
-      </c>
-      <c r="H14">
-        <v>3.3479033836787102</v>
-      </c>
-      <c r="I14">
-        <v>6.3256273300072703</v>
-      </c>
-      <c r="J14">
-        <v>10.5483887500574</v>
-      </c>
-      <c r="L14" s="1">
-        <v>42906</v>
-      </c>
-      <c r="M14" s="1">
-        <v>43636</v>
-      </c>
-      <c r="N14" s="1">
-        <v>44732</v>
-      </c>
-      <c r="O14" t="s">
-        <v>197</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>10548.3887500574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>3.9662655812541403</v>
-      </c>
-      <c r="E15">
-        <v>6.8580123925151497</v>
-      </c>
-      <c r="F15">
-        <v>10.674582225699</v>
-      </c>
-      <c r="H15">
-        <v>3.9662655812541403</v>
-      </c>
-      <c r="I15">
-        <v>6.8580123925151497</v>
-      </c>
-      <c r="J15">
-        <v>10.674582225699</v>
-      </c>
-      <c r="L15" s="1">
-        <v>43089</v>
-      </c>
-      <c r="M15" s="1">
-        <v>43819</v>
-      </c>
-      <c r="N15" s="1">
-        <v>44915</v>
-      </c>
-      <c r="O15" t="s">
-        <v>235</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>10674.582225699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>2.3871647004408598</v>
-      </c>
-      <c r="D16">
-        <v>4.47134089828009</v>
-      </c>
-      <c r="E16">
-        <v>7.5006179255964005</v>
-      </c>
-      <c r="F16">
-        <v>11.029918561054</v>
-      </c>
-      <c r="G16">
-        <v>2.3871647004408598</v>
-      </c>
-      <c r="H16">
-        <v>4.47134089828009</v>
-      </c>
-      <c r="I16">
-        <v>7.5006179255964005</v>
-      </c>
-      <c r="J16">
-        <v>11.029918561054</v>
-      </c>
-      <c r="K16" s="1">
-        <v>42541</v>
-      </c>
-      <c r="L16" s="1">
-        <v>43271</v>
-      </c>
-      <c r="M16" s="1">
-        <v>44002</v>
-      </c>
-      <c r="N16" s="1">
-        <v>45097</v>
-      </c>
-      <c r="O16" t="s">
-        <v>242</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>11029.918561054001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>2.3008679783216301</v>
-      </c>
-      <c r="D17">
-        <v>5.16461924617417</v>
-      </c>
-      <c r="E17">
-        <v>8.0742284983667609</v>
-      </c>
-      <c r="F17">
-        <v>11.0430487013984</v>
-      </c>
-      <c r="G17">
-        <v>2.3008679783216301</v>
-      </c>
-      <c r="H17">
-        <v>5.16461924617417</v>
-      </c>
-      <c r="I17">
-        <v>8.0742284983667609</v>
-      </c>
-      <c r="J17">
-        <v>11.0430487013984</v>
-      </c>
-      <c r="K17" s="1">
-        <v>42724</v>
-      </c>
-      <c r="L17" s="1">
-        <v>43454</v>
-      </c>
-      <c r="M17" s="1">
-        <v>44185</v>
-      </c>
-      <c r="N17" s="1">
-        <v>45280</v>
-      </c>
-      <c r="O17" t="s">
-        <v>260</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>11043.0487013984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>2.8506258795824699</v>
-      </c>
-      <c r="D18">
-        <v>5.7231622029115101</v>
-      </c>
-      <c r="E18">
-        <v>8.7157416118066813</v>
-      </c>
-      <c r="F18">
-        <v>11.312732254324001</v>
-      </c>
-      <c r="G18">
-        <v>2.8506258795824699</v>
-      </c>
-      <c r="H18">
-        <v>5.7231622029115101</v>
-      </c>
-      <c r="I18">
-        <v>8.7157416118066813</v>
-      </c>
-      <c r="J18">
-        <v>11.312732254324001</v>
-      </c>
-      <c r="K18" s="1">
-        <v>42906</v>
-      </c>
-      <c r="L18" s="1">
-        <v>43636</v>
-      </c>
-      <c r="M18" s="1">
-        <v>44367</v>
-      </c>
-      <c r="N18" s="1">
-        <v>45463</v>
-      </c>
-      <c r="O18" t="s">
-        <v>309</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>11312.732254324001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>3.9613422155401494</v>
-      </c>
-      <c r="D19">
-        <v>6.8268314239689296</v>
-      </c>
-      <c r="E19">
-        <v>9.6739497290443097</v>
-      </c>
-      <c r="F19">
-        <v>11.8827810987496</v>
-      </c>
-      <c r="G19">
-        <v>3.9613422155401494</v>
-      </c>
-      <c r="H19">
-        <v>6.8268314239689296</v>
-      </c>
-      <c r="I19">
-        <v>9.6739497290443097</v>
-      </c>
-      <c r="J19">
-        <v>11.8827810987496</v>
-      </c>
-      <c r="K19" s="1">
-        <v>43089</v>
-      </c>
-      <c r="L19" s="1">
-        <v>43819</v>
-      </c>
-      <c r="M19" s="1">
-        <v>44550</v>
-      </c>
-      <c r="N19" s="1">
-        <v>45646</v>
-      </c>
-      <c r="O19" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>11882.7810987496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>4.5758539628816894</v>
-      </c>
-      <c r="D20">
-        <v>7.6117267090422702</v>
-      </c>
-      <c r="E20">
-        <v>10.362332080842199</v>
-      </c>
-      <c r="F20">
-        <v>12.221811706860001</v>
-      </c>
-      <c r="G20">
-        <v>4.5758539628816894</v>
-      </c>
-      <c r="H20">
-        <v>7.6117267090422702</v>
-      </c>
-      <c r="I20">
-        <v>10.362332080842199</v>
-      </c>
-      <c r="J20">
-        <v>12.221811706860001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>43271</v>
-      </c>
-      <c r="L20" s="1">
-        <v>44002</v>
-      </c>
-      <c r="M20" s="1">
-        <v>44732</v>
-      </c>
-      <c r="N20" s="1">
-        <v>45828</v>
-      </c>
-      <c r="O20" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>12221.81170686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>5.2784380822277006</v>
-      </c>
-      <c r="D21">
-        <v>8.1795991320831796</v>
-      </c>
-      <c r="E21">
-        <v>10.478797928270801</v>
-      </c>
-      <c r="F21">
-        <v>12.024427684104499</v>
-      </c>
-      <c r="G21">
-        <v>5.2784380822277006</v>
-      </c>
-      <c r="H21">
-        <v>8.1795991320831796</v>
-      </c>
-      <c r="I21">
-        <v>10.478797928270801</v>
-      </c>
-      <c r="J21">
-        <v>12.024427684104499</v>
-      </c>
-      <c r="K21" s="1">
-        <v>43454</v>
-      </c>
-      <c r="L21" s="1">
-        <v>44185</v>
-      </c>
-      <c r="M21" s="1">
-        <v>44915</v>
-      </c>
-      <c r="N21" s="1">
-        <v>46011</v>
-      </c>
-      <c r="O21" t="s">
-        <v>353</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>12024.427684104499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>5.3382030293634495</v>
-      </c>
-      <c r="D22">
-        <v>8.2169150200522996</v>
-      </c>
-      <c r="E22">
-        <v>10.248835845591401</v>
-      </c>
-      <c r="F22">
-        <v>11.6158495524187</v>
-      </c>
-      <c r="G22">
-        <v>5.3382030293634495</v>
-      </c>
-      <c r="H22">
-        <v>8.2169150200522996</v>
-      </c>
-      <c r="I22">
-        <v>10.248835845591401</v>
-      </c>
-      <c r="J22">
-        <v>11.6158495524187</v>
-      </c>
-      <c r="K22" s="1">
-        <v>43636</v>
-      </c>
-      <c r="L22" s="1">
-        <v>44367</v>
-      </c>
-      <c r="M22" s="1">
-        <v>45097</v>
-      </c>
-      <c r="N22" s="1">
-        <v>46193</v>
-      </c>
-      <c r="O22" t="s">
-        <v>373</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>11615.8495524187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>16.762176684112898</v>
-      </c>
-      <c r="J23">
-        <v>16.762176684112898</v>
-      </c>
-      <c r="N23" s="1">
-        <v>42541</v>
-      </c>
-      <c r="O23" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>16762.176684112899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>16.352083006237898</v>
-      </c>
-      <c r="J24">
-        <v>16.352083006237898</v>
-      </c>
-      <c r="N24" s="1">
-        <v>42724</v>
-      </c>
-      <c r="O24" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>16352.083006237897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>17.1691599807572</v>
-      </c>
-      <c r="J25">
-        <v>17.1691599807572</v>
-      </c>
-      <c r="N25" s="1">
-        <v>42906</v>
-      </c>
-      <c r="O25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>17169.159980757202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>15.133715498388</v>
-      </c>
-      <c r="J26">
-        <v>15.133715498388</v>
-      </c>
-      <c r="N26" s="1">
-        <v>43089</v>
-      </c>
-      <c r="O26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>15133.715498387999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>14.5966815883772</v>
-      </c>
-      <c r="J27">
-        <v>14.5966815883772</v>
-      </c>
-      <c r="N27" s="1">
-        <v>43271</v>
-      </c>
-      <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>14596.6815883772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>15.318000343827</v>
-      </c>
-      <c r="J28">
-        <v>15.318000343827</v>
-      </c>
-      <c r="N28" s="1">
-        <v>43454</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>15318.000343827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>15.7705204417062</v>
-      </c>
-      <c r="J29">
-        <v>15.7705204417062</v>
-      </c>
-      <c r="N29" s="1">
-        <v>43636</v>
-      </c>
-      <c r="O29" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>15770.5204417062</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <v>16.608422765010101</v>
-      </c>
-      <c r="J30">
-        <v>16.608422765010101</v>
-      </c>
-      <c r="N30" s="1">
-        <v>43819</v>
-      </c>
-      <c r="O30" t="s">
-        <v>71</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>16608.422765010102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <v>17.201294284503501</v>
-      </c>
-      <c r="J31">
-        <v>17.201294284503501</v>
-      </c>
-      <c r="N31" s="1">
-        <v>44002</v>
-      </c>
-      <c r="O31" t="s">
-        <v>96</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>17201.2942845035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="F32">
-        <v>18.003898135358899</v>
-      </c>
-      <c r="J32">
-        <v>18.003898135358899</v>
-      </c>
-      <c r="N32" s="1">
-        <v>44185</v>
-      </c>
-      <c r="O32" t="s">
-        <v>134</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>18003.898135358897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="D33">
-        <v>13.592890803289501</v>
-      </c>
-      <c r="F33">
-        <v>19.375103737605698</v>
-      </c>
-      <c r="H33">
-        <v>13.592890803289501</v>
-      </c>
-      <c r="J33">
-        <v>19.375103737605698</v>
-      </c>
-      <c r="L33" s="1">
-        <v>42541</v>
-      </c>
-      <c r="N33" s="1">
-        <v>44367</v>
-      </c>
-      <c r="O33" t="s">
-        <v>146</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>19375.103737605699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>13.4574161648928</v>
-      </c>
-      <c r="F34">
-        <v>19.721883159208602</v>
-      </c>
-      <c r="H34">
-        <v>13.4574161648928</v>
-      </c>
-      <c r="J34">
-        <v>19.721883159208602</v>
-      </c>
-      <c r="L34" s="1">
-        <v>42724</v>
-      </c>
-      <c r="N34" s="1">
-        <v>44550</v>
-      </c>
-      <c r="O34" t="s">
-        <v>166</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>19721.883159208603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>13.7881923405879</v>
-      </c>
-      <c r="F35">
-        <v>19.520180242482002</v>
-      </c>
-      <c r="H35">
-        <v>13.7881923405879</v>
-      </c>
-      <c r="J35">
-        <v>19.520180242482002</v>
-      </c>
-      <c r="L35" s="1">
-        <v>42906</v>
-      </c>
-      <c r="N35" s="1">
-        <v>44732</v>
-      </c>
-      <c r="O35" t="s">
-        <v>201</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>19520.180242482002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>10.9369236073788</v>
-      </c>
-      <c r="F36">
-        <v>17.828941286516997</v>
-      </c>
-      <c r="H36">
-        <v>10.9369236073788</v>
-      </c>
-      <c r="J36">
-        <v>17.828941286516997</v>
-      </c>
-      <c r="L36" s="1">
-        <v>43089</v>
-      </c>
-      <c r="N36" s="1">
-        <v>44915</v>
-      </c>
-      <c r="O36" t="s">
-        <v>228</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>17828.941286516998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-      <c r="D37">
-        <v>11.5059615771387</v>
-      </c>
-      <c r="F37">
-        <v>18.233382329358701</v>
-      </c>
-      <c r="H37">
-        <v>11.5059615771387</v>
-      </c>
-      <c r="J37">
-        <v>18.233382329358701</v>
-      </c>
-      <c r="L37" s="1">
-        <v>43271</v>
-      </c>
-      <c r="N37" s="1">
-        <v>45097</v>
-      </c>
-      <c r="O37" t="s">
-        <v>239</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>18233.382329358701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <v>12.4383366258868</v>
-      </c>
-      <c r="F38">
-        <v>18.530041354994498</v>
-      </c>
-      <c r="H38">
-        <v>12.4383366258868</v>
-      </c>
-      <c r="J38">
-        <v>18.530041354994498</v>
-      </c>
-      <c r="L38" s="1">
-        <v>43454</v>
-      </c>
-      <c r="N38" s="1">
-        <v>45280</v>
-      </c>
-      <c r="O38" t="s">
-        <v>257</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>18530.041354994497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>13.5312434744312</v>
-      </c>
-      <c r="F39">
-        <v>19.710839247129599</v>
-      </c>
-      <c r="H39">
-        <v>13.5312434744312</v>
-      </c>
-      <c r="J39">
-        <v>19.710839247129599</v>
-      </c>
-      <c r="L39" s="1">
-        <v>43636</v>
-      </c>
-      <c r="N39" s="1">
-        <v>45463</v>
-      </c>
-      <c r="O39" t="s">
-        <v>306</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>19710.839247129599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40">
-        <v>22</v>
-      </c>
-      <c r="D40">
-        <v>17.746969433875801</v>
-      </c>
-      <c r="F40">
-        <v>23.595781246696802</v>
-      </c>
-      <c r="H40">
-        <v>17.746969433875801</v>
-      </c>
-      <c r="J40">
-        <v>23.595781246696802</v>
-      </c>
-      <c r="L40" s="1">
-        <v>43819</v>
-      </c>
-      <c r="N40" s="1">
-        <v>45646</v>
-      </c>
-      <c r="O40" t="s">
-        <v>319</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>23595.781246696803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>18.024055481121</v>
-      </c>
-      <c r="F41">
-        <v>23.063298962914899</v>
-      </c>
-      <c r="H41">
-        <v>18.024055481121</v>
-      </c>
-      <c r="J41">
-        <v>23.063298962914899</v>
-      </c>
-      <c r="L41" s="1">
-        <v>44002</v>
-      </c>
-      <c r="N41" s="1">
-        <v>45828</v>
-      </c>
-      <c r="O41" t="s">
-        <v>342</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>23063.298962914898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42">
-        <v>24</v>
-      </c>
-      <c r="D42">
-        <v>19.275120404733002</v>
-      </c>
-      <c r="F42">
-        <v>23.484013417330299</v>
-      </c>
-      <c r="H42">
-        <v>19.275120404733002</v>
-      </c>
-      <c r="J42">
-        <v>23.484013417330299</v>
-      </c>
-      <c r="L42" s="1">
-        <v>44185</v>
-      </c>
-      <c r="N42" s="1">
-        <v>46011</v>
-      </c>
-      <c r="O42" t="s">
-        <v>350</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>23484.013417330298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>25</v>
-      </c>
-      <c r="D43">
-        <v>20.1418255711305</v>
-      </c>
-      <c r="F43">
-        <v>23.629506509741301</v>
-      </c>
-      <c r="H43">
-        <v>20.1418255711305</v>
-      </c>
-      <c r="J43">
-        <v>23.629506509741301</v>
-      </c>
-      <c r="L43" s="1">
-        <v>44367</v>
-      </c>
-      <c r="N43" s="1">
-        <v>46193</v>
-      </c>
-      <c r="O43" t="s">
-        <v>378</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>23629.506509741303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>5.1629487434540895</v>
-      </c>
-      <c r="J44">
-        <v>5.1629487434540895</v>
-      </c>
-      <c r="N44" s="1">
-        <v>42541</v>
-      </c>
-      <c r="O44" t="s">
-        <v>226</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>5162.9487434540897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>32.839270998436803</v>
-      </c>
-      <c r="J45">
-        <v>32.839270998436803</v>
-      </c>
-      <c r="N45" s="1">
-        <v>42724</v>
-      </c>
-      <c r="O45" t="s">
-        <v>224</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>32839.270998436805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="F46">
-        <v>22.280446250236398</v>
-      </c>
-      <c r="J46">
-        <v>22.280446250236398</v>
-      </c>
-      <c r="N46" s="1">
-        <v>42906</v>
-      </c>
-      <c r="O46" t="s">
-        <v>386</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>22280.446250236397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>9.4297803653687886</v>
-      </c>
-      <c r="J47">
-        <v>9.4297803653687886</v>
-      </c>
-      <c r="N47" s="1">
-        <v>43089</v>
-      </c>
-      <c r="O47" t="s">
-        <v>388</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>9429.7803653687879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>10.3991866825413</v>
-      </c>
-      <c r="J48">
-        <v>10.3991866825413</v>
-      </c>
-      <c r="N48" s="1">
-        <v>43271</v>
-      </c>
-      <c r="O48" t="s">
-        <v>390</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>10399.1866825413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>10.239524342385</v>
-      </c>
-      <c r="J49">
-        <v>10.239524342385</v>
-      </c>
-      <c r="N49" s="1">
-        <v>43454</v>
-      </c>
-      <c r="O49" t="s">
-        <v>392</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>10239.524342385001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="E50">
-        <v>4.7635605439084001</v>
-      </c>
-      <c r="F50">
-        <v>11.254743616956501</v>
-      </c>
-      <c r="I50">
-        <v>4.7635605439084001</v>
-      </c>
-      <c r="J50">
-        <v>11.254743616956501</v>
-      </c>
-      <c r="M50" s="1">
-        <v>42541</v>
-      </c>
-      <c r="N50" s="1">
-        <v>43636</v>
-      </c>
-      <c r="O50" t="s">
-        <v>394</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>11254.743616956501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <v>4.4447043154008705</v>
-      </c>
-      <c r="F51">
-        <v>11.655220461253601</v>
-      </c>
-      <c r="I51">
-        <v>4.4447043154008705</v>
-      </c>
-      <c r="J51">
-        <v>11.655220461253601</v>
-      </c>
-      <c r="M51" s="1">
-        <v>42724</v>
-      </c>
-      <c r="N51" s="1">
-        <v>43819</v>
-      </c>
-      <c r="O51" t="s">
-        <v>397</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>11655.220461253601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52">
-        <v>13</v>
-      </c>
-      <c r="E52">
-        <v>5.4709872003982198</v>
-      </c>
-      <c r="F52">
-        <v>12.746243096909399</v>
-      </c>
-      <c r="I52">
-        <v>5.4709872003982198</v>
-      </c>
-      <c r="J52">
-        <v>12.746243096909399</v>
-      </c>
-      <c r="M52" s="1">
-        <v>42906</v>
-      </c>
-      <c r="N52" s="1">
-        <v>44002</v>
-      </c>
-      <c r="O52" t="s">
-        <v>400</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>12746.2430969094</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53">
-        <v>14</v>
-      </c>
-      <c r="E53">
-        <v>9.3406346004401808</v>
-      </c>
-      <c r="F53">
-        <v>16.6665641532155</v>
-      </c>
-      <c r="I53">
-        <v>9.3406346004401808</v>
-      </c>
-      <c r="J53">
-        <v>16.6665641532155</v>
-      </c>
-      <c r="M53" s="1">
-        <v>43089</v>
-      </c>
-      <c r="N53" s="1">
-        <v>44185</v>
-      </c>
-      <c r="O53" t="s">
-        <v>403</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>16666.564153215499</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>5.7709706702955303</v>
-      </c>
-      <c r="E54">
-        <v>10.580973294879399</v>
-      </c>
-      <c r="F54">
-        <v>18.3510735507809</v>
-      </c>
-      <c r="H54">
-        <v>5.7709706702955303</v>
-      </c>
-      <c r="I54">
-        <v>10.580973294879399</v>
-      </c>
-      <c r="J54">
-        <v>18.3510735507809</v>
-      </c>
-      <c r="L54" s="1">
-        <v>42541</v>
-      </c>
-      <c r="M54" s="1">
-        <v>43271</v>
-      </c>
-      <c r="N54" s="1">
-        <v>44367</v>
-      </c>
-      <c r="O54" t="s">
-        <v>406</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>18351.0735507809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55">
-        <v>16</v>
-      </c>
-      <c r="D55">
-        <v>28.551658240970099</v>
-      </c>
-      <c r="E55">
-        <v>19.206548458349602</v>
-      </c>
-      <c r="F55">
-        <v>23.392697512985801</v>
-      </c>
-      <c r="H55">
-        <v>28.551658240970099</v>
-      </c>
-      <c r="I55">
-        <v>19.206548458349602</v>
-      </c>
-      <c r="J55">
-        <v>23.392697512985801</v>
-      </c>
-      <c r="L55" s="1">
-        <v>42724</v>
-      </c>
-      <c r="M55" s="1">
-        <v>43454</v>
-      </c>
-      <c r="N55" s="1">
-        <v>44550</v>
-      </c>
-      <c r="O55" t="s">
-        <v>410</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>23392.6975129858</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56">
-        <v>17</v>
-      </c>
-      <c r="D56">
-        <v>20.136743892499499</v>
-      </c>
-      <c r="E56">
-        <v>19.1003887053207</v>
-      </c>
-      <c r="F56">
-        <v>24.124069911757097</v>
-      </c>
-      <c r="H56">
-        <v>20.136743892499499</v>
-      </c>
-      <c r="I56">
-        <v>19.1003887053207</v>
-      </c>
-      <c r="J56">
-        <v>24.124069911757097</v>
-      </c>
-      <c r="L56" s="1">
-        <v>42906</v>
-      </c>
-      <c r="M56" s="1">
-        <v>43636</v>
-      </c>
-      <c r="N56" s="1">
-        <v>44732</v>
-      </c>
-      <c r="O56" t="s">
-        <v>414</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>24124.069911757098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57">
-        <v>18</v>
-      </c>
-      <c r="D57">
-        <v>18.800390102747599</v>
-      </c>
-      <c r="E57">
-        <v>20.315327830662302</v>
-      </c>
-      <c r="F57">
-        <v>25.179490579065302</v>
-      </c>
-      <c r="H57">
-        <v>18.800390102747599</v>
-      </c>
-      <c r="I57">
-        <v>20.315327830662302</v>
-      </c>
-      <c r="J57">
-        <v>25.179490579065302</v>
-      </c>
-      <c r="L57" s="1">
-        <v>43089</v>
-      </c>
-      <c r="M57" s="1">
-        <v>43819</v>
-      </c>
-      <c r="N57" s="1">
-        <v>44915</v>
-      </c>
-      <c r="O57" t="s">
-        <v>418</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>25179.490579065303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58">
-        <v>19</v>
-      </c>
-      <c r="C58">
-        <v>46.3110811536067</v>
-      </c>
-      <c r="D58">
-        <v>18.439889666227501</v>
-      </c>
-      <c r="E58">
-        <v>21.629221291661501</v>
-      </c>
-      <c r="F58">
-        <v>26.521784043093298</v>
-      </c>
-      <c r="G58">
-        <v>46.3110811536067</v>
-      </c>
-      <c r="H58">
-        <v>18.439889666227501</v>
-      </c>
-      <c r="I58">
-        <v>21.629221291661501</v>
-      </c>
-      <c r="J58">
-        <v>26.521784043093298</v>
-      </c>
-      <c r="K58" s="1">
-        <v>42541</v>
-      </c>
-      <c r="L58" s="1">
-        <v>43271</v>
-      </c>
-      <c r="M58" s="1">
-        <v>44002</v>
-      </c>
-      <c r="N58" s="1">
-        <v>45097</v>
-      </c>
-      <c r="O58" t="s">
-        <v>422</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>26521.784043093299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59">
-        <v>20</v>
-      </c>
-      <c r="C59">
-        <v>27.213066382189002</v>
-      </c>
-      <c r="D59">
-        <v>18.6643067918634</v>
-      </c>
-      <c r="E59">
-        <v>22.1356433941157</v>
-      </c>
-      <c r="F59">
-        <v>26.152342395283497</v>
-      </c>
-      <c r="G59">
-        <v>27.213066382189002</v>
-      </c>
-      <c r="H59">
-        <v>18.6643067918634</v>
-      </c>
-      <c r="I59">
-        <v>22.1356433941157</v>
-      </c>
-      <c r="J59">
-        <v>26.152342395283497</v>
-      </c>
-      <c r="K59" s="1">
-        <v>42724</v>
-      </c>
-      <c r="L59" s="1">
-        <v>43454</v>
-      </c>
-      <c r="M59" s="1">
-        <v>44185</v>
-      </c>
-      <c r="N59" s="1">
-        <v>45280</v>
-      </c>
-      <c r="O59" t="s">
-        <v>427</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>26152.342395283496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60">
-        <v>21</v>
-      </c>
-      <c r="C60">
-        <v>19.101344458068102</v>
-      </c>
-      <c r="D60">
-        <v>20.561585272955</v>
-      </c>
-      <c r="E60">
-        <v>25.329595479434399</v>
-      </c>
-      <c r="F60">
-        <v>29.1427581174365</v>
-      </c>
-      <c r="G60">
-        <v>19.101344458068102</v>
-      </c>
-      <c r="H60">
-        <v>20.561585272955</v>
-      </c>
-      <c r="I60">
-        <v>25.329595479434399</v>
-      </c>
-      <c r="J60">
-        <v>29.1427581174365</v>
-      </c>
-      <c r="K60" s="1">
-        <v>42906</v>
-      </c>
-      <c r="L60" s="1">
-        <v>43636</v>
-      </c>
-      <c r="M60" s="1">
-        <v>44367</v>
-      </c>
-      <c r="N60" s="1">
-        <v>45463</v>
-      </c>
-      <c r="O60" t="s">
-        <v>432</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>29142.7581174365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61">
-        <v>22</v>
-      </c>
-      <c r="C61">
-        <v>31.477241335471398</v>
-      </c>
-      <c r="D61">
-        <v>33.671394520166203</v>
-      </c>
-      <c r="E61">
-        <v>37.675516712142098</v>
-      </c>
-      <c r="F61">
-        <v>39.6050466383792</v>
-      </c>
-      <c r="G61">
-        <v>31.477241335471398</v>
-      </c>
-      <c r="H61">
-        <v>33.671394520166203</v>
-      </c>
-      <c r="I61">
-        <v>37.675516712142098</v>
-      </c>
-      <c r="J61">
-        <v>39.6050466383792</v>
-      </c>
-      <c r="K61" s="1">
-        <v>43089</v>
-      </c>
-      <c r="L61" s="1">
-        <v>43819</v>
-      </c>
-      <c r="M61" s="1">
-        <v>44550</v>
-      </c>
-      <c r="N61" s="1">
-        <v>45646</v>
-      </c>
-      <c r="O61" t="s">
-        <v>437</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>39605.046638379201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62">
-        <v>23</v>
-      </c>
-      <c r="C62">
-        <v>29.1046724309771</v>
-      </c>
-      <c r="D62">
-        <v>33.625608887559402</v>
-      </c>
-      <c r="E62">
-        <v>37.586231495436898</v>
-      </c>
-      <c r="F62">
-        <v>39.213639350885899</v>
-      </c>
-      <c r="G62">
-        <v>29.1046724309771</v>
-      </c>
-      <c r="H62">
-        <v>33.625608887559402</v>
-      </c>
-      <c r="I62">
-        <v>37.586231495436898</v>
-      </c>
-      <c r="J62">
-        <v>39.213639350885899</v>
-      </c>
-      <c r="K62" s="1">
-        <v>43271</v>
-      </c>
-      <c r="L62" s="1">
-        <v>44002</v>
-      </c>
-      <c r="M62" s="1">
-        <v>44732</v>
-      </c>
-      <c r="N62" s="1">
-        <v>45828</v>
-      </c>
-      <c r="O62" t="s">
-        <v>442</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>39213.639350885896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63">
-        <v>24</v>
-      </c>
-      <c r="C63">
-        <v>31.002650369005099</v>
-      </c>
-      <c r="D63">
-        <v>36.077238364814697</v>
-      </c>
-      <c r="E63">
-        <v>39.459153635906603</v>
-      </c>
-      <c r="F63">
-        <v>40.798601403784197</v>
-      </c>
-      <c r="G63">
-        <v>31.002650369005099</v>
-      </c>
-      <c r="H63">
-        <v>36.077238364814697</v>
-      </c>
-      <c r="I63">
-        <v>39.459153635906603</v>
-      </c>
-      <c r="J63">
-        <v>40.798601403784197</v>
-      </c>
-      <c r="K63" s="1">
-        <v>43454</v>
-      </c>
-      <c r="L63" s="1">
-        <v>44185</v>
-      </c>
-      <c r="M63" s="1">
-        <v>44915</v>
-      </c>
-      <c r="N63" s="1">
-        <v>46011</v>
-      </c>
-      <c r="O63" t="s">
-        <v>345</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>40798.601403784196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64">
-        <v>25</v>
-      </c>
-      <c r="C64">
-        <v>25.993098648778403</v>
-      </c>
-      <c r="D64">
-        <v>33.918175338510295</v>
-      </c>
-      <c r="E64">
-        <v>37.452195485304401</v>
-      </c>
-      <c r="F64">
-        <v>39.074227505774097</v>
-      </c>
-      <c r="G64">
-        <v>25.993098648778403</v>
-      </c>
-      <c r="H64">
-        <v>33.918175338510295</v>
-      </c>
-      <c r="I64">
-        <v>37.452195485304401</v>
-      </c>
-      <c r="J64">
-        <v>39.074227505774097</v>
-      </c>
-      <c r="K64" s="1">
-        <v>43636</v>
-      </c>
-      <c r="L64" s="1">
-        <v>44367</v>
-      </c>
-      <c r="M64" s="1">
-        <v>45097</v>
-      </c>
-      <c r="N64" s="1">
-        <v>46193</v>
-      </c>
-      <c r="O64" t="s">
-        <v>381</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="0"/>
-        <v>39074.227505774099</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:Q64">
-    <sortCondition ref="A1:A64"/>
-    <sortCondition ref="B1:B64"/>
-    <sortCondition ref="C1:C64"/>
-    <sortCondition ref="D1:D64"/>
-    <sortCondition ref="E1:E64"/>
-    <sortCondition ref="F1:F64"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Source\Repos\adaptableblotter-demo\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31095" windowHeight="15045"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31100" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="CDSIndexPrice" sheetId="3" r:id="rId1"/>
     <sheet name="CdsIndices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1407,7 +1410,7 @@
     <t>Spread10Y</t>
   </si>
   <si>
-    <t>updated</t>
+    <t>Updated Date</t>
   </si>
 </sst>
 </file>
@@ -2239,20 +2242,20 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>447</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>19257.322228430399</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>3357.2760093665397</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>3893.2974723849302</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>7937.8313177125201</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>7644.30655837208</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>8073.2337492083288</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>8966.9483942607203</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>9559.1827792198292</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>10026.6775099309</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>10695.6033565501</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>11242.4350131678</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>10504.423964823798</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>10548.3887500574</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>10674.582225699</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>11029.918561054001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>11043.0487013984</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>11312.732254324001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>11882.7810987496</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>12221.81170686</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>12024.427684104499</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>11615.8495524187</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>16762.176684112899</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>16352.083006237897</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>17169.159980757202</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>15133.715498387999</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>14596.6815883772</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>15318.000343827</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>15770.5204417062</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>16608.422765010102</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>17201.2942845035</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>18003.898135358897</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>19375.103737605699</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>19721.883159208603</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>19520.180242482002</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>17828.941286516998</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>18233.382329358701</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>18530.041354994497</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>19710.839247129599</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>23595.781246696803</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>23063.298962914898</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>23484.013417330298</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>23629.506509741303</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>5162.9487434540897</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>32839.270998436805</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>22280.446250236397</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>9429.7803653687879</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>10399.1866825413</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>10239.524342385001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>11254.743616956501</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>11655.220461253601</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>12746.2430969094</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>16666.564153215499</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>18351.0735507809</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>23392.6975129858</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>24124.069911757098</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>25179.490579065303</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4375,7 +4378,7 @@
         <v>26521.784043093299</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>26152.342395283496</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>29142.7581174365</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>39605.046638379201</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>39213.639350885896</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>40798.601403784196</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4721,21 +4724,21 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>447</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>1.92573222284304E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>1.92573222284304E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>3.3572760093665398E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>3.3572760093665398E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>3.8932974723849302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>3.8932974723849302E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>7.9378313177125206E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>7.6443065583720804E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>8.0732337492083299E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>8.9669483942607202E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>1.8575812070809002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>9.5591827792198304E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>1.15231796524594E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>1.0026677509930901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>8.6637215685837193E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>1.06956033565501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>8.2665276660324992E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>1.12424350131678E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>1.8354451143667499E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>7.9436362364501203E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>1.05044239648238E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>2.9412638892014E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>6.0822062478195901E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>1.05483887500574E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>3.3479033836787101E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>6.3256273300072701E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>1.0674582225699E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>3.9662655812541404E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>6.8580123925151499E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>1.1029918561054E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>2.38716470044086E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5791,7 +5794,7 @@
         <v>4.4713408982800899E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>7.5006179255964001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>1.1043048701398399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>2.3008679783216301E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>5.1646192461741701E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>8.0742284983667603E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>1.1312732254324E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>2.8506258795824701E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>5.72316220291151E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>8.7157416118066808E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>1.1882781098749601E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>3.9613422155401496E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>6.8268314239689296E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>9.6739497290443104E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>1.222181170686E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>4.5758539628816897E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>7.6117267090422703E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>1.0362332080842199E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>1.2024427684104499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>5.2784380822277002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>8.1795991320831804E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>1.04787979282708E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>1.16158495524187E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>5.3382030293634497E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>8.2169150200523001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>1.02488358455914E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>1.6762176684112898E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -6655,7 +6658,7 @@
         <v>1.6352083006237899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>1.7169159980757201E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>1.5133715498388E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>1.45966815883772E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>1.5318000343827E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>1.5770520441706199E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>1.6608422765010102E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>1.72012942845035E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>1.8003898135358899E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>1.93751037376057E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>1.3592890803289501E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>1.97218831592086E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>1.3457416164892801E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>1.9520180242482001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>1.3788192340587899E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>1.7828941286516999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>1.0936923607378799E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>1.8233382329358699E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -7231,7 +7234,7 @@
         <v>1.15059615771387E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>1.85300413549945E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>1.24383366258868E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>1.9710839247129599E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>1.3531243474431199E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>2.3595781246696802E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -7423,7 +7426,7 @@
         <v>1.7746969433875801E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -7455,7 +7458,7 @@
         <v>2.30632989629149E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>1.8024055481121001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>2.34840134173303E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>1.9275120404733E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>2.3629506509741299E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>2.0141825571130499E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>5.1629799293405002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>5.16318792893303E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>5.1631567465225004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>5.1631567465225004E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>5.1629487434540896E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>5.1629487434540896E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -7839,7 +7842,7 @@
         <v>3.2839303925237602E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>3.2839303925237602E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>2.22804462502364E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -8319,7 +8322,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -8447,7 +8450,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>9.4297803653687895E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -8799,7 +8802,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -8863,7 +8866,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>1.0399186682541301E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -8991,7 +8994,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -9023,7 +9026,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -9183,7 +9186,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>1.0239524342385E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -9311,7 +9314,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -9439,7 +9442,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -9663,7 +9666,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -9695,7 +9698,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>1.16552204612536E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -9887,7 +9890,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -9919,7 +9922,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>4.4447043154008702E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -10143,7 +10146,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>1.27462430969094E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -10303,7 +10306,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -10367,7 +10370,7 @@
         <v>5.4709872003982198E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -10463,7 +10466,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -10527,7 +10530,7 @@
         <v>1.6666564153215501E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -10559,7 +10562,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -10591,7 +10594,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -10687,7 +10690,7 @@
         <v>9.3406346004401807E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10719,7 +10722,7 @@
         <v>1.83761472622214E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>1.8378019074837399E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>1.8351073550780899E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>5.6948119288556497E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>5.7182140849699999E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>5.7709706702955303E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>1.05888558392016E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>1.05934986675021E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>1.0580973294879399E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -11359,7 +11362,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -11519,7 +11522,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -11583,7 +11586,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -11711,7 +11714,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -11743,7 +11746,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -11775,7 +11778,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -11839,7 +11842,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -11871,7 +11874,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -11903,7 +11906,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -12127,7 +12130,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -12223,7 +12226,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>2.6152342395283499E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -12287,7 +12290,7 @@
         <v>2.6152342395283499E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -12319,7 +12322,7 @@
         <v>2.7213066382189E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -12351,7 +12354,7 @@
         <v>2.7213066382189E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -12383,7 +12386,7 @@
         <v>1.86643067918634E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -12415,7 +12418,7 @@
         <v>1.86643067918634E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>2.2135643394115698E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -12479,7 +12482,7 @@
         <v>2.2135643394115698E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -12511,7 +12514,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -12543,7 +12546,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -12671,7 +12674,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -12735,7 +12738,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -12767,7 +12770,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -12799,7 +12802,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -12831,7 +12834,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -12895,7 +12898,7 @@
         <v>3.9659404586358103E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -12927,7 +12930,7 @@
         <v>3.9605046638379202E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>3.9605046638379202E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -12991,7 +12994,7 @@
         <v>3.1958482267112502E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -13023,7 +13026,7 @@
         <v>3.1477241335471397E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -13055,7 +13058,7 @@
         <v>3.1477241335471397E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>3.37698220747807E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>3.3671394520166202E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -13151,7 +13154,7 @@
         <v>3.3671394520166202E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>3.7718869842517898E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -13215,7 +13218,7 @@
         <v>3.7675516712142101E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13250,7 @@
         <v>3.7675516712142101E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -13279,7 +13282,7 @@
         <v>3.9228153500307499E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>3.9213639350885898E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -13343,7 +13346,7 @@
         <v>3.9213639350885898E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -13375,7 +13378,7 @@
         <v>2.9159207696595E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -13407,7 +13410,7 @@
         <v>2.9104672430977099E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>2.9104672430977099E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>3.3593909410263197E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v>3.3625608887559402E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>3.3625608887559402E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -13567,7 +13570,7 @@
         <v>3.7589367148340602E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -13599,7 +13602,7 @@
         <v>3.7586231495436898E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -13631,7 +13634,7 @@
         <v>3.7586231495436898E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -13663,7 +13666,7 @@
         <v>4.0798601403784197E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>3.10026503690051E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -13727,7 +13730,7 @@
         <v>3.6077238364814697E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -13759,7 +13762,7 @@
         <v>3.9459153635906602E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>3.9074227505774099E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -13823,7 +13826,7 @@
         <v>2.5993098648778402E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -13855,7 +13858,7 @@
         <v>3.3918175338510298E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>13</v>
       </c>

--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31100" windowHeight="15040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740"/>
   </bookViews>
   <sheets>
     <sheet name="CDSIndexPrice" sheetId="3" r:id="rId1"/>
@@ -1912,10 +1912,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2242,7 +2245,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2255,7 @@
     <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -2301,7 +2304,7 @@
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2327,7 +2330,7 @@
       <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" t="b">
+      <c r="P2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -2354,7 +2357,7 @@
       <c r="O3" t="s">
         <v>153</v>
       </c>
-      <c r="P3" t="b">
+      <c r="P3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q3">
@@ -2381,7 +2384,7 @@
       <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="P4" t="b">
+      <c r="P4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q4">
@@ -2408,7 +2411,7 @@
       <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="b">
+      <c r="P5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q5">
@@ -2435,7 +2438,7 @@
       <c r="O6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" t="b">
+      <c r="P6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q6">
@@ -2462,7 +2465,7 @@
       <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" t="b">
+      <c r="P7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q7">
@@ -2498,7 +2501,7 @@
       <c r="O8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" t="b">
+      <c r="P8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q8">
@@ -2534,7 +2537,7 @@
       <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="b">
+      <c r="P9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q9">
@@ -2570,7 +2573,7 @@
       <c r="O10" t="s">
         <v>101</v>
       </c>
-      <c r="P10" t="b">
+      <c r="P10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q10">
@@ -2606,7 +2609,7 @@
       <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="P11" t="b">
+      <c r="P11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q11">
@@ -2651,7 +2654,7 @@
       <c r="O12" t="s">
         <v>142</v>
       </c>
-      <c r="P12" t="b">
+      <c r="P12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q12">
@@ -2696,7 +2699,7 @@
       <c r="O13" t="s">
         <v>158</v>
       </c>
-      <c r="P13" t="b">
+      <c r="P13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q13">
@@ -2741,7 +2744,7 @@
       <c r="O14" t="s">
         <v>197</v>
       </c>
-      <c r="P14" t="b">
+      <c r="P14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q14">
@@ -2786,7 +2789,7 @@
       <c r="O15" t="s">
         <v>235</v>
       </c>
-      <c r="P15" t="b">
+      <c r="P15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q15">
@@ -2840,7 +2843,7 @@
       <c r="O16" t="s">
         <v>242</v>
       </c>
-      <c r="P16" t="b">
+      <c r="P16" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q16">
@@ -2894,7 +2897,7 @@
       <c r="O17" t="s">
         <v>260</v>
       </c>
-      <c r="P17" t="b">
+      <c r="P17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q17">
@@ -2948,7 +2951,7 @@
       <c r="O18" t="s">
         <v>309</v>
       </c>
-      <c r="P18" t="b">
+      <c r="P18" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q18">
@@ -3002,7 +3005,7 @@
       <c r="O19" t="s">
         <v>322</v>
       </c>
-      <c r="P19" t="b">
+      <c r="P19" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q19">
@@ -3056,7 +3059,7 @@
       <c r="O20" t="s">
         <v>332</v>
       </c>
-      <c r="P20" t="b">
+      <c r="P20" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q20">
@@ -3110,7 +3113,7 @@
       <c r="O21" t="s">
         <v>353</v>
       </c>
-      <c r="P21" t="b">
+      <c r="P21" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q21">
@@ -3164,7 +3167,7 @@
       <c r="O22" t="s">
         <v>373</v>
       </c>
-      <c r="P22" t="b">
+      <c r="P22" s="5" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
@@ -3191,7 +3194,7 @@
       <c r="O23" t="s">
         <v>17</v>
       </c>
-      <c r="P23" t="b">
+      <c r="P23" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q23">
@@ -3218,7 +3221,7 @@
       <c r="O24" t="s">
         <v>22</v>
       </c>
-      <c r="P24" t="b">
+      <c r="P24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q24">
@@ -3245,7 +3248,7 @@
       <c r="O25" t="s">
         <v>26</v>
       </c>
-      <c r="P25" t="b">
+      <c r="P25" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q25">
@@ -3272,7 +3275,7 @@
       <c r="O26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" t="b">
+      <c r="P26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q26">
@@ -3299,7 +3302,7 @@
       <c r="O27" t="s">
         <v>52</v>
       </c>
-      <c r="P27" t="b">
+      <c r="P27" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q27">
@@ -3326,7 +3329,7 @@
       <c r="O28" t="s">
         <v>54</v>
       </c>
-      <c r="P28" t="b">
+      <c r="P28" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q28">
@@ -3353,7 +3356,7 @@
       <c r="O29" t="s">
         <v>56</v>
       </c>
-      <c r="P29" t="b">
+      <c r="P29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q29">
@@ -3380,7 +3383,7 @@
       <c r="O30" t="s">
         <v>71</v>
       </c>
-      <c r="P30" t="b">
+      <c r="P30" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q30">
@@ -3407,7 +3410,7 @@
       <c r="O31" t="s">
         <v>96</v>
       </c>
-      <c r="P31" t="b">
+      <c r="P31" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q31">
@@ -3434,7 +3437,7 @@
       <c r="O32" t="s">
         <v>134</v>
       </c>
-      <c r="P32" t="b">
+      <c r="P32" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q32">
@@ -3470,7 +3473,7 @@
       <c r="O33" t="s">
         <v>146</v>
       </c>
-      <c r="P33" t="b">
+      <c r="P33" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q33">
@@ -3506,7 +3509,7 @@
       <c r="O34" t="s">
         <v>166</v>
       </c>
-      <c r="P34" t="b">
+      <c r="P34" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q34">
@@ -3542,7 +3545,7 @@
       <c r="O35" t="s">
         <v>201</v>
       </c>
-      <c r="P35" t="b">
+      <c r="P35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q35">
@@ -3578,7 +3581,7 @@
       <c r="O36" t="s">
         <v>228</v>
       </c>
-      <c r="P36" t="b">
+      <c r="P36" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q36">
@@ -3614,7 +3617,7 @@
       <c r="O37" t="s">
         <v>239</v>
       </c>
-      <c r="P37" t="b">
+      <c r="P37" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q37">
@@ -3650,7 +3653,7 @@
       <c r="O38" t="s">
         <v>257</v>
       </c>
-      <c r="P38" t="b">
+      <c r="P38" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q38">
@@ -3686,7 +3689,7 @@
       <c r="O39" t="s">
         <v>306</v>
       </c>
-      <c r="P39" t="b">
+      <c r="P39" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q39">
@@ -3722,7 +3725,7 @@
       <c r="O40" t="s">
         <v>319</v>
       </c>
-      <c r="P40" t="b">
+      <c r="P40" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q40">
@@ -3758,7 +3761,7 @@
       <c r="O41" t="s">
         <v>342</v>
       </c>
-      <c r="P41" t="b">
+      <c r="P41" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q41">
@@ -3794,7 +3797,7 @@
       <c r="O42" t="s">
         <v>350</v>
       </c>
-      <c r="P42" t="b">
+      <c r="P42" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q42">
@@ -3830,7 +3833,7 @@
       <c r="O43" t="s">
         <v>378</v>
       </c>
-      <c r="P43" t="b">
+      <c r="P43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
@@ -3857,7 +3860,7 @@
       <c r="O44" t="s">
         <v>226</v>
       </c>
-      <c r="P44" t="b">
+      <c r="P44" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q44">
@@ -3884,7 +3887,7 @@
       <c r="O45" t="s">
         <v>224</v>
       </c>
-      <c r="P45" t="b">
+      <c r="P45" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q45">
@@ -3911,7 +3914,7 @@
       <c r="O46" t="s">
         <v>386</v>
       </c>
-      <c r="P46" t="b">
+      <c r="P46" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q46">
@@ -3938,7 +3941,7 @@
       <c r="O47" t="s">
         <v>388</v>
       </c>
-      <c r="P47" t="b">
+      <c r="P47" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q47">
@@ -3965,7 +3968,7 @@
       <c r="O48" t="s">
         <v>390</v>
       </c>
-      <c r="P48" t="b">
+      <c r="P48" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q48">
@@ -3992,7 +3995,7 @@
       <c r="O49" t="s">
         <v>392</v>
       </c>
-      <c r="P49" t="b">
+      <c r="P49" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q49">
@@ -4028,7 +4031,7 @@
       <c r="O50" t="s">
         <v>394</v>
       </c>
-      <c r="P50" t="b">
+      <c r="P50" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q50">
@@ -4064,7 +4067,7 @@
       <c r="O51" t="s">
         <v>397</v>
       </c>
-      <c r="P51" t="b">
+      <c r="P51" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q51">
@@ -4100,7 +4103,7 @@
       <c r="O52" t="s">
         <v>400</v>
       </c>
-      <c r="P52" t="b">
+      <c r="P52" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q52">
@@ -4136,7 +4139,7 @@
       <c r="O53" t="s">
         <v>403</v>
       </c>
-      <c r="P53" t="b">
+      <c r="P53" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q53">
@@ -4181,7 +4184,7 @@
       <c r="O54" t="s">
         <v>406</v>
       </c>
-      <c r="P54" t="b">
+      <c r="P54" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q54">
@@ -4226,7 +4229,7 @@
       <c r="O55" t="s">
         <v>410</v>
       </c>
-      <c r="P55" t="b">
+      <c r="P55" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q55">
@@ -4271,7 +4274,7 @@
       <c r="O56" t="s">
         <v>414</v>
       </c>
-      <c r="P56" t="b">
+      <c r="P56" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q56">
@@ -4316,7 +4319,7 @@
       <c r="O57" t="s">
         <v>418</v>
       </c>
-      <c r="P57" t="b">
+      <c r="P57" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q57">
@@ -4370,7 +4373,7 @@
       <c r="O58" t="s">
         <v>422</v>
       </c>
-      <c r="P58" t="b">
+      <c r="P58" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q58">
@@ -4424,7 +4427,7 @@
       <c r="O59" t="s">
         <v>427</v>
       </c>
-      <c r="P59" t="b">
+      <c r="P59" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q59">
@@ -4478,7 +4481,7 @@
       <c r="O60" t="s">
         <v>432</v>
       </c>
-      <c r="P60" t="b">
+      <c r="P60" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q60">
@@ -4532,7 +4535,7 @@
       <c r="O61" t="s">
         <v>437</v>
       </c>
-      <c r="P61" t="b">
+      <c r="P61" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q61">
@@ -4586,7 +4589,7 @@
       <c r="O62" t="s">
         <v>442</v>
       </c>
-      <c r="P62" t="b">
+      <c r="P62" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q62">
@@ -4640,7 +4643,7 @@
       <c r="O63" t="s">
         <v>345</v>
       </c>
-      <c r="P63" t="b">
+      <c r="P63" s="5" t="b">
         <v>0</v>
       </c>
       <c r="Q63">
@@ -4694,7 +4697,7 @@
       <c r="O64" t="s">
         <v>381</v>
       </c>
-      <c r="P64" t="b">
+      <c r="P64" s="5" t="b">
         <v>1</v>
       </c>
       <c r="Q64">

--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -1912,13 +1912,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2245,7 +2246,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2256,6 +2257,7 @@
     <col min="11" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -2333,9 +2335,8 @@
       <c r="P2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <f>SUM(J2*1000)</f>
-        <v>19257.322228430399</v>
+      <c r="Q2" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2360,9 +2361,8 @@
       <c r="P3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q64" si="0">SUM(J3*1000)</f>
-        <v>3357.2760093665397</v>
+      <c r="Q3" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -2387,9 +2387,8 @@
       <c r="P4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>3893.2974723849302</v>
+      <c r="Q4" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -2414,9 +2413,8 @@
       <c r="P5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>7937.8313177125201</v>
+      <c r="Q5" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -2441,9 +2439,8 @@
       <c r="P6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>7644.30655837208</v>
+      <c r="Q6" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -2468,9 +2465,8 @@
       <c r="P7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>8073.2337492083288</v>
+      <c r="Q7" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -2504,9 +2500,8 @@
       <c r="P8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>8966.9483942607203</v>
+      <c r="Q8" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2540,9 +2535,8 @@
       <c r="P9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>9559.1827792198292</v>
+      <c r="Q9" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -2576,9 +2570,8 @@
       <c r="P10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>10026.6775099309</v>
+      <c r="Q10" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2612,9 +2605,8 @@
       <c r="P11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>10695.6033565501</v>
+      <c r="Q11" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -2657,9 +2649,8 @@
       <c r="P12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>11242.4350131678</v>
+      <c r="Q12" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2702,9 +2693,8 @@
       <c r="P13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>10504.423964823798</v>
+      <c r="Q13" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2747,9 +2737,8 @@
       <c r="P14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>10548.3887500574</v>
+      <c r="Q14" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -2792,9 +2781,8 @@
       <c r="P15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>10674.582225699</v>
+      <c r="Q15" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -2846,9 +2834,8 @@
       <c r="P16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>11029.918561054001</v>
+      <c r="Q16" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -2900,9 +2887,8 @@
       <c r="P17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>11043.0487013984</v>
+      <c r="Q17" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -2954,9 +2940,8 @@
       <c r="P18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>11312.732254324001</v>
+      <c r="Q18" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3008,9 +2993,8 @@
       <c r="P19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>11882.7810987496</v>
+      <c r="Q19" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -3062,9 +3046,8 @@
       <c r="P20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>12221.81170686</v>
+      <c r="Q20" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -3116,9 +3099,8 @@
       <c r="P21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>12024.427684104499</v>
+      <c r="Q21" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -3170,9 +3152,8 @@
       <c r="P22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>11615.8495524187</v>
+      <c r="Q22" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -3197,9 +3178,8 @@
       <c r="P23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>16762.176684112899</v>
+      <c r="Q23" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -3224,9 +3204,8 @@
       <c r="P24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>16352.083006237897</v>
+      <c r="Q24" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -3251,9 +3230,8 @@
       <c r="P25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>17169.159980757202</v>
+      <c r="Q25" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -3278,9 +3256,8 @@
       <c r="P26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>15133.715498387999</v>
+      <c r="Q26" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -3305,9 +3282,8 @@
       <c r="P27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>14596.6815883772</v>
+      <c r="Q27" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -3332,9 +3308,8 @@
       <c r="P28" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>15318.000343827</v>
+      <c r="Q28" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -3359,9 +3334,8 @@
       <c r="P29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>15770.5204417062</v>
+      <c r="Q29" s="6">
+        <v>42872</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -3386,9 +3360,8 @@
       <c r="P30" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>16608.422765010102</v>
+      <c r="Q30" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -3413,9 +3386,8 @@
       <c r="P31" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>17201.2942845035</v>
+      <c r="Q31" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -3440,9 +3412,8 @@
       <c r="P32" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>18003.898135358897</v>
+      <c r="Q32" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -3476,9 +3447,8 @@
       <c r="P33" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>19375.103737605699</v>
+      <c r="Q33" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -3512,9 +3482,8 @@
       <c r="P34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>19721.883159208603</v>
+      <c r="Q34" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -3548,9 +3517,8 @@
       <c r="P35" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>19520.180242482002</v>
+      <c r="Q35" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -3584,9 +3552,8 @@
       <c r="P36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>17828.941286516998</v>
+      <c r="Q36" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -3620,9 +3587,8 @@
       <c r="P37" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>18233.382329358701</v>
+      <c r="Q37" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -3656,9 +3622,8 @@
       <c r="P38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>18530.041354994497</v>
+      <c r="Q38" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -3692,9 +3657,8 @@
       <c r="P39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>19710.839247129599</v>
+      <c r="Q39" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -3728,9 +3692,8 @@
       <c r="P40" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>23595.781246696803</v>
+      <c r="Q40" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -3764,9 +3727,8 @@
       <c r="P41" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>23063.298962914898</v>
+      <c r="Q41" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -3800,9 +3762,8 @@
       <c r="P42" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>23484.013417330298</v>
+      <c r="Q42" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -3836,9 +3797,8 @@
       <c r="P43" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>23629.506509741303</v>
+      <c r="Q43" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -3863,9 +3823,8 @@
       <c r="P44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>5162.9487434540897</v>
+      <c r="Q44" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -3890,9 +3849,8 @@
       <c r="P45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>32839.270998436805</v>
+      <c r="Q45" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -3917,9 +3875,8 @@
       <c r="P46" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>22280.446250236397</v>
+      <c r="Q46" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -3944,9 +3901,8 @@
       <c r="P47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>9429.7803653687879</v>
+      <c r="Q47" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -3971,9 +3927,8 @@
       <c r="P48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>10399.1866825413</v>
+      <c r="Q48" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -3998,9 +3953,8 @@
       <c r="P49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>10239.524342385001</v>
+      <c r="Q49" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -4034,9 +3988,8 @@
       <c r="P50" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>11254.743616956501</v>
+      <c r="Q50" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -4070,9 +4023,8 @@
       <c r="P51" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>11655.220461253601</v>
+      <c r="Q51" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -4106,9 +4058,8 @@
       <c r="P52" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>12746.2430969094</v>
+      <c r="Q52" s="6">
+        <v>42872</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -4142,9 +4093,8 @@
       <c r="P53" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>16666.564153215499</v>
+      <c r="Q53" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -4187,9 +4137,8 @@
       <c r="P54" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>18351.0735507809</v>
+      <c r="Q54" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -4232,9 +4181,8 @@
       <c r="P55" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>23392.6975129858</v>
+      <c r="Q55" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -4277,9 +4225,8 @@
       <c r="P56" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>24124.069911757098</v>
+      <c r="Q56" s="6">
+        <v>42872</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -4322,9 +4269,8 @@
       <c r="P57" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>25179.490579065303</v>
+      <c r="Q57" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -4376,9 +4322,8 @@
       <c r="P58" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>26521.784043093299</v>
+      <c r="Q58" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -4430,9 +4375,8 @@
       <c r="P59" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>26152.342395283496</v>
+      <c r="Q59" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -4484,9 +4428,8 @@
       <c r="P60" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>29142.7581174365</v>
+      <c r="Q60" s="6">
+        <v>42871</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -4538,9 +4481,8 @@
       <c r="P61" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>39605.046638379201</v>
+      <c r="Q61" s="6">
+        <v>42870</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -4592,9 +4534,8 @@
       <c r="P62" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>39213.639350885896</v>
+      <c r="Q62" s="6">
+        <v>42869</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -4646,9 +4587,8 @@
       <c r="P63" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>40798.601403784196</v>
+      <c r="Q63" s="6">
+        <v>42866</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -4700,9 +4640,8 @@
       <c r="P64" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="Q64">
-        <f t="shared" si="0"/>
-        <v>39074.227505774099</v>
+      <c r="Q64" s="6">
+        <v>42871</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/Code/adaptableblotter-demo/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1410,7 +1410,7 @@
     <t>Spread10Y</t>
   </si>
   <si>
-    <t>Updated Date</t>
+    <t>UpdatedDate</t>
   </si>
 </sst>
 </file>
@@ -2246,7 +2246,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/Code/adaptableblotter-demo/DataSets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="CDSIndexPrice" sheetId="3" r:id="rId1"/>
     <sheet name="CdsIndices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="460">
   <si>
     <t>Series</t>
   </si>
@@ -1408,9 +1403,6 @@
   </si>
   <si>
     <t>Spread10Y</t>
-  </si>
-  <si>
-    <t>UpdatedDate</t>
   </si>
 </sst>
 </file>
@@ -1912,14 +1904,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2235,7 +2226,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2243,13 +2234,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -2257,10 +2248,9 @@
     <col min="11" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>447</v>
       </c>
@@ -2309,11 +2299,8 @@
       <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2335,11 +2322,8 @@
       <c r="P2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2361,11 +2345,8 @@
       <c r="P3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2387,11 +2368,8 @@
       <c r="P4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2413,11 +2391,8 @@
       <c r="P5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2439,11 +2414,8 @@
       <c r="P6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2465,11 +2437,8 @@
       <c r="P7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2500,11 +2469,8 @@
       <c r="P8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2535,11 +2501,8 @@
       <c r="P9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2570,11 +2533,8 @@
       <c r="P10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2605,11 +2565,8 @@
       <c r="P11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2649,11 +2606,8 @@
       <c r="P12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2693,11 +2647,8 @@
       <c r="P13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2737,11 +2688,8 @@
       <c r="P14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2781,11 +2729,8 @@
       <c r="P15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2834,11 +2779,8 @@
       <c r="P16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2887,11 +2829,8 @@
       <c r="P17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2940,11 +2879,8 @@
       <c r="P18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2993,11 +2929,8 @@
       <c r="P19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3046,11 +2979,8 @@
       <c r="P20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3099,11 +3029,8 @@
       <c r="P21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3152,11 +3079,8 @@
       <c r="P22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3178,11 +3102,8 @@
       <c r="P23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3204,11 +3125,8 @@
       <c r="P24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q24" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3230,11 +3148,8 @@
       <c r="P25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q25" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3256,11 +3171,8 @@
       <c r="P26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3282,11 +3194,8 @@
       <c r="P27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3308,11 +3217,8 @@
       <c r="P28" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3334,11 +3240,8 @@
       <c r="P29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" s="6">
-        <v>42872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3360,11 +3263,8 @@
       <c r="P30" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3386,11 +3286,8 @@
       <c r="P31" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3412,11 +3309,8 @@
       <c r="P32" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -3447,11 +3341,8 @@
       <c r="P33" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -3482,11 +3373,8 @@
       <c r="P34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -3517,11 +3405,8 @@
       <c r="P35" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q35" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -3552,11 +3437,8 @@
       <c r="P36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q36" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -3587,11 +3469,8 @@
       <c r="P37" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -3622,11 +3501,8 @@
       <c r="P38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q38" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -3657,11 +3533,8 @@
       <c r="P39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q39" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -3692,11 +3565,8 @@
       <c r="P40" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q40" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3727,11 +3597,8 @@
       <c r="P41" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q41" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -3762,11 +3629,8 @@
       <c r="P42" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q42" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -3797,11 +3661,8 @@
       <c r="P43" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="Q43" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3823,11 +3684,8 @@
       <c r="P44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q44" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3849,11 +3707,8 @@
       <c r="P45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q45" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3875,11 +3730,8 @@
       <c r="P46" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q46" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3901,11 +3753,8 @@
       <c r="P47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q47" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3927,11 +3776,8 @@
       <c r="P48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q48" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3953,11 +3799,8 @@
       <c r="P49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q49" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3988,11 +3831,8 @@
       <c r="P50" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q50" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4023,11 +3863,8 @@
       <c r="P51" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q51" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4058,11 +3895,8 @@
       <c r="P52" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q52" s="6">
-        <v>42872</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4093,11 +3927,8 @@
       <c r="P53" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q53" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4137,11 +3968,8 @@
       <c r="P54" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q54" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4181,11 +4009,8 @@
       <c r="P55" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q55" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4225,11 +4050,8 @@
       <c r="P56" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q56" s="6">
-        <v>42872</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4269,11 +4091,8 @@
       <c r="P57" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q57" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4322,11 +4141,8 @@
       <c r="P58" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q58" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4375,11 +4191,8 @@
       <c r="P59" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q59" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4428,11 +4241,8 @@
       <c r="P60" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q60" s="6">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4481,11 +4291,8 @@
       <c r="P61" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q61" s="6">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4534,11 +4341,8 @@
       <c r="P62" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q62" s="6">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4587,11 +4391,8 @@
       <c r="P63" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q63" s="6">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4639,9 +4440,6 @@
       </c>
       <c r="P64" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>42871</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4452,12 @@
     <sortCondition ref="F1:F64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4666,7 +4469,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -4680,7 +4483,7 @@
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>447</v>
       </c>
@@ -4712,7 +4515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4744,7 +4547,7 @@
         <v>1.92573222284304E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4776,7 +4579,7 @@
         <v>1.92573222284304E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4808,7 +4611,7 @@
         <v>3.3572760093665398E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4840,7 +4643,7 @@
         <v>3.3572760093665398E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4872,7 +4675,7 @@
         <v>3.8932974723849302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4904,7 +4707,7 @@
         <v>3.8932974723849302E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4936,7 +4739,7 @@
         <v>7.9378313177125206E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4968,7 +4771,7 @@
         <v>7.6443065583720804E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5000,7 +4803,7 @@
         <v>8.0732337492083299E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5032,7 +4835,7 @@
         <v>8.9669483942607202E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5064,7 +4867,7 @@
         <v>1.8575812070809002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5096,7 +4899,7 @@
         <v>9.5591827792198304E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5128,7 +4931,7 @@
         <v>1.15231796524594E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5160,7 +4963,7 @@
         <v>1.0026677509930901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5192,7 +4995,7 @@
         <v>8.6637215685837193E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5224,7 +5027,7 @@
         <v>1.06956033565501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5256,7 +5059,7 @@
         <v>8.2665276660324992E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5288,7 +5091,7 @@
         <v>1.12424350131678E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5320,7 +5123,7 @@
         <v>1.8354451143667499E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5352,7 +5155,7 @@
         <v>7.9436362364501203E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5384,7 +5187,7 @@
         <v>1.05044239648238E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5416,7 +5219,7 @@
         <v>2.9412638892014E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5448,7 +5251,7 @@
         <v>6.0822062478195901E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5480,7 +5283,7 @@
         <v>1.05483887500574E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5512,7 +5315,7 @@
         <v>3.3479033836787101E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -5544,7 +5347,7 @@
         <v>6.3256273300072701E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -5576,7 +5379,7 @@
         <v>1.0674582225699E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5608,7 +5411,7 @@
         <v>3.9662655812541404E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5443,7 @@
         <v>6.8580123925151499E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5672,7 +5475,7 @@
         <v>1.1029918561054E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -5704,7 +5507,7 @@
         <v>2.38716470044086E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5736,7 +5539,7 @@
         <v>4.4713408982800899E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -5768,7 +5571,7 @@
         <v>7.5006179255964001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -5800,7 +5603,7 @@
         <v>1.1043048701398399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5832,7 +5635,7 @@
         <v>2.3008679783216301E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -5864,7 +5667,7 @@
         <v>5.1646192461741701E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -5896,7 +5699,7 @@
         <v>8.0742284983667603E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -5928,7 +5731,7 @@
         <v>1.1312732254324E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -5960,7 +5763,7 @@
         <v>2.8506258795824701E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -5992,7 +5795,7 @@
         <v>5.72316220291151E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -6024,7 +5827,7 @@
         <v>8.7157416118066808E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -6056,7 +5859,7 @@
         <v>1.1882781098749601E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -6088,7 +5891,7 @@
         <v>3.9613422155401496E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -6120,7 +5923,7 @@
         <v>6.8268314239689296E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -6152,7 +5955,7 @@
         <v>9.6739497290443104E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -6184,7 +5987,7 @@
         <v>1.222181170686E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -6216,7 +6019,7 @@
         <v>4.5758539628816897E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -6248,7 +6051,7 @@
         <v>7.6117267090422703E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -6280,7 +6083,7 @@
         <v>1.0362332080842199E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -6312,7 +6115,7 @@
         <v>1.2024427684104499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -6344,7 +6147,7 @@
         <v>5.2784380822277002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -6376,7 +6179,7 @@
         <v>8.1795991320831804E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6408,7 +6211,7 @@
         <v>1.04787979282708E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -6440,7 +6243,7 @@
         <v>1.16158495524187E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -6472,7 +6275,7 @@
         <v>5.3382030293634497E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -6504,7 +6307,7 @@
         <v>8.2169150200523001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -6536,7 +6339,7 @@
         <v>1.02488358455914E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -6568,7 +6371,7 @@
         <v>1.6762176684112898E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -6600,7 +6403,7 @@
         <v>1.6352083006237899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -6632,7 +6435,7 @@
         <v>1.7169159980757201E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6664,7 +6467,7 @@
         <v>1.5133715498388E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -6696,7 +6499,7 @@
         <v>1.45966815883772E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -6728,7 +6531,7 @@
         <v>1.5318000343827E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -6760,7 +6563,7 @@
         <v>1.5770520441706199E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -6792,7 +6595,7 @@
         <v>1.6608422765010102E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6824,7 +6627,7 @@
         <v>1.72012942845035E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -6856,7 +6659,7 @@
         <v>1.8003898135358899E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -6888,7 +6691,7 @@
         <v>1.93751037376057E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -6920,7 +6723,7 @@
         <v>1.3592890803289501E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -6952,7 +6755,7 @@
         <v>1.97218831592086E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -6984,7 +6787,7 @@
         <v>1.3457416164892801E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -7016,7 +6819,7 @@
         <v>1.9520180242482001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +6851,7 @@
         <v>1.3788192340587899E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -7080,7 +6883,7 @@
         <v>1.7828941286516999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -7112,7 +6915,7 @@
         <v>1.0936923607378799E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -7144,7 +6947,7 @@
         <v>1.8233382329358699E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -7176,7 +6979,7 @@
         <v>1.15059615771387E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -7208,7 +7011,7 @@
         <v>1.85300413549945E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -7240,7 +7043,7 @@
         <v>1.24383366258868E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -7272,7 +7075,7 @@
         <v>1.9710839247129599E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -7304,7 +7107,7 @@
         <v>1.3531243474431199E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -7336,7 +7139,7 @@
         <v>2.3595781246696802E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -7368,7 +7171,7 @@
         <v>1.7746969433875801E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -7400,7 +7203,7 @@
         <v>2.30632989629149E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -7432,7 +7235,7 @@
         <v>1.8024055481121001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -7464,7 +7267,7 @@
         <v>2.34840134173303E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -7496,7 +7299,7 @@
         <v>1.9275120404733E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -7528,7 +7331,7 @@
         <v>2.3629506509741299E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -7560,7 +7363,7 @@
         <v>2.0141825571130499E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -7592,7 +7395,7 @@
         <v>5.1629799293405002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -7624,7 +7427,7 @@
         <v>5.16318792893303E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -7656,7 +7459,7 @@
         <v>5.1631567465225004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -7688,7 +7491,7 @@
         <v>5.1631567465225004E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -7720,7 +7523,7 @@
         <v>5.1629487434540896E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +7555,7 @@
         <v>5.1629487434540896E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -7784,7 +7587,7 @@
         <v>3.2839303925237602E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -7816,7 +7619,7 @@
         <v>3.2839303925237602E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -7848,7 +7651,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -7880,7 +7683,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -7912,7 +7715,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -7944,7 +7747,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -7976,7 +7779,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -8008,7 +7811,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -8040,7 +7843,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -8072,7 +7875,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -8104,7 +7907,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -8136,7 +7939,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -8168,7 +7971,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -8200,7 +8003,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -8232,7 +8035,7 @@
         <v>2.22804462502364E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -8264,7 +8067,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -8296,7 +8099,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -8328,7 +8131,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -8360,7 +8163,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -8392,7 +8195,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -8424,7 +8227,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -8456,7 +8259,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -8488,7 +8291,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -8520,7 +8323,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -8552,7 +8355,7 @@
         <v>9.4297803653687895E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -8584,7 +8387,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -8616,7 +8419,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -8648,7 +8451,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -8680,7 +8483,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -8712,7 +8515,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -8744,7 +8547,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -8776,7 +8579,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -8808,7 +8611,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -8840,7 +8643,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -8872,7 +8675,7 @@
         <v>1.0399186682541301E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -8904,7 +8707,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -8936,7 +8739,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -8968,7 +8771,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -9000,7 +8803,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -9032,7 +8835,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -9064,7 +8867,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -9096,7 +8899,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -9128,7 +8931,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -9160,7 +8963,7 @@
         <v>1.0239524342385E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -9192,7 +8995,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -9224,7 +9027,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -9256,7 +9059,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -9288,7 +9091,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -9320,7 +9123,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -9352,7 +9155,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -9384,7 +9187,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -9416,7 +9219,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -9448,7 +9251,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -9480,7 +9283,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -9512,7 +9315,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -9544,7 +9347,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -9576,7 +9379,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -9608,7 +9411,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -9640,7 +9443,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -9672,7 +9475,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -9704,7 +9507,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -9736,7 +9539,7 @@
         <v>1.16552204612536E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -9768,7 +9571,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -9800,7 +9603,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -9832,7 +9635,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -9864,7 +9667,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -9896,7 +9699,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -9928,7 +9731,7 @@
         <v>4.4447043154008702E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -9960,7 +9763,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -9992,7 +9795,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -10024,7 +9827,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -10056,7 +9859,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -10088,7 +9891,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -10120,7 +9923,7 @@
         <v>1.27462430969094E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -10152,7 +9955,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -10184,7 +9987,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -10216,7 +10019,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -10248,7 +10051,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -10280,7 +10083,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -10312,7 +10115,7 @@
         <v>5.4709872003982198E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -10344,7 +10147,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -10376,7 +10179,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -10408,7 +10211,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -10440,7 +10243,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -10472,7 +10275,7 @@
         <v>1.6666564153215501E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -10504,7 +10307,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -10536,7 +10339,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -10568,7 +10371,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -10600,7 +10403,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -10632,7 +10435,7 @@
         <v>9.3406346004401807E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10664,7 +10467,7 @@
         <v>1.83761472622214E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -10696,7 +10499,7 @@
         <v>1.8378019074837399E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -10728,7 +10531,7 @@
         <v>1.8351073550780899E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -10760,7 +10563,7 @@
         <v>5.6948119288556497E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -10792,7 +10595,7 @@
         <v>5.7182140849699999E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -10824,7 +10627,7 @@
         <v>5.7709706702955303E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -10856,7 +10659,7 @@
         <v>1.05888558392016E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -10888,7 +10691,7 @@
         <v>1.05934986675021E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -10920,7 +10723,7 @@
         <v>1.0580973294879399E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -10952,7 +10755,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -10984,7 +10787,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -11016,7 +10819,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -11048,7 +10851,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -11080,7 +10883,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -11112,7 +10915,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -11144,7 +10947,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -11176,7 +10979,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -11208,7 +11011,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -11240,7 +11043,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -11272,7 +11075,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -11304,7 +11107,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -11336,7 +11139,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -11368,7 +11171,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -11400,7 +11203,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -11432,7 +11235,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -11464,7 +11267,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -11496,7 +11299,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -11528,7 +11331,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -11560,7 +11363,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -11592,7 +11395,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -11624,7 +11427,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -11656,7 +11459,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -11688,7 +11491,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -11720,7 +11523,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -11752,7 +11555,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -11784,7 +11587,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -11816,7 +11619,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -11848,7 +11651,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -11880,7 +11683,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -11912,7 +11715,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -11944,7 +11747,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -11976,7 +11779,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -12008,7 +11811,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -12040,7 +11843,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -12072,7 +11875,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -12104,7 +11907,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -12136,7 +11939,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -12168,7 +11971,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -12200,7 +12003,7 @@
         <v>2.6152342395283499E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -12232,7 +12035,7 @@
         <v>2.6152342395283499E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -12264,7 +12067,7 @@
         <v>2.7213066382189E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -12296,7 +12099,7 @@
         <v>2.7213066382189E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -12328,7 +12131,7 @@
         <v>1.86643067918634E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -12360,7 +12163,7 @@
         <v>1.86643067918634E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -12392,7 +12195,7 @@
         <v>2.2135643394115698E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -12424,7 +12227,7 @@
         <v>2.2135643394115698E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -12456,7 +12259,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -12488,7 +12291,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -12520,7 +12323,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -12552,7 +12355,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -12584,7 +12387,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -12616,7 +12419,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -12648,7 +12451,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -12680,7 +12483,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -12712,7 +12515,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -12744,7 +12547,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -12776,7 +12579,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -12808,7 +12611,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -12840,7 +12643,7 @@
         <v>3.9659404586358103E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -12872,7 +12675,7 @@
         <v>3.9605046638379202E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -12904,7 +12707,7 @@
         <v>3.9605046638379202E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -12936,7 +12739,7 @@
         <v>3.1958482267112502E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -12968,7 +12771,7 @@
         <v>3.1477241335471397E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -13000,7 +12803,7 @@
         <v>3.1477241335471397E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -13032,7 +12835,7 @@
         <v>3.37698220747807E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -13064,7 +12867,7 @@
         <v>3.3671394520166202E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -13096,7 +12899,7 @@
         <v>3.3671394520166202E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -13128,7 +12931,7 @@
         <v>3.7718869842517898E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -13160,7 +12963,7 @@
         <v>3.7675516712142101E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -13192,7 +12995,7 @@
         <v>3.7675516712142101E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -13224,7 +13027,7 @@
         <v>3.9228153500307499E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -13256,7 +13059,7 @@
         <v>3.9213639350885898E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -13288,7 +13091,7 @@
         <v>3.9213639350885898E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -13320,7 +13123,7 @@
         <v>2.9159207696595E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -13352,7 +13155,7 @@
         <v>2.9104672430977099E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -13384,7 +13187,7 @@
         <v>2.9104672430977099E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -13416,7 +13219,7 @@
         <v>3.3593909410263197E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -13448,7 +13251,7 @@
         <v>3.3625608887559402E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -13480,7 +13283,7 @@
         <v>3.3625608887559402E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -13512,7 +13315,7 @@
         <v>3.7589367148340602E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -13544,7 +13347,7 @@
         <v>3.7586231495436898E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -13576,7 +13379,7 @@
         <v>3.7586231495436898E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -13608,7 +13411,7 @@
         <v>4.0798601403784197E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -13640,7 +13443,7 @@
         <v>3.10026503690051E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -13672,7 +13475,7 @@
         <v>3.6077238364814697E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -13704,7 +13507,7 @@
         <v>3.9459153635906602E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -13736,7 +13539,7 @@
         <v>3.9074227505774099E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -13768,7 +13571,7 @@
         <v>2.5993098648778402E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -13800,7 +13603,7 @@
         <v>3.3918175338510298E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -13839,6 +13642,11 @@
     <sortCondition ref="D2:D286"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="461">
   <si>
     <t>Series</t>
   </si>
@@ -1403,6 +1403,9 @@
   </si>
   <si>
     <t>Spread10Y</t>
+  </si>
+  <si>
+    <t>RedCode</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1861,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1903,16 +1906,15 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1942,12 +1944,14 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2236,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2247,7 +2251,6 @@
     <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2294,9 +2297,9 @@
         <v>455</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2319,7 +2322,7 @@
       <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="5" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2342,7 +2345,7 @@
       <c r="O3" t="s">
         <v>153</v>
       </c>
-      <c r="P3" s="5" t="b">
+      <c r="P3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2365,7 +2368,7 @@
       <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="5" t="b">
+      <c r="P4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2391,7 @@
       <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="5" t="b">
+      <c r="P5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2411,7 +2414,7 @@
       <c r="O6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="5" t="b">
+      <c r="P6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2434,7 +2437,7 @@
       <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="5" t="b">
+      <c r="P7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2466,7 +2469,7 @@
       <c r="O8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="5" t="b">
+      <c r="P8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2501,7 @@
       <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="5" t="b">
+      <c r="P9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2530,7 +2533,7 @@
       <c r="O10" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="5" t="b">
+      <c r="P10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2562,7 +2565,7 @@
       <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="P11" s="5" t="b">
+      <c r="P11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +2606,7 @@
       <c r="O12" t="s">
         <v>142</v>
       </c>
-      <c r="P12" s="5" t="b">
+      <c r="P12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2647,7 @@
       <c r="O13" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="5" t="b">
+      <c r="P13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2685,7 +2688,7 @@
       <c r="O14" t="s">
         <v>197</v>
       </c>
-      <c r="P14" s="5" t="b">
+      <c r="P14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +2729,7 @@
       <c r="O15" t="s">
         <v>235</v>
       </c>
-      <c r="P15" s="5" t="b">
+      <c r="P15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2776,7 +2779,7 @@
       <c r="O16" t="s">
         <v>242</v>
       </c>
-      <c r="P16" s="5" t="b">
+      <c r="P16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +2829,7 @@
       <c r="O17" t="s">
         <v>260</v>
       </c>
-      <c r="P17" s="5" t="b">
+      <c r="P17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2876,7 +2879,7 @@
       <c r="O18" t="s">
         <v>309</v>
       </c>
-      <c r="P18" s="5" t="b">
+      <c r="P18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2926,7 +2929,7 @@
       <c r="O19" t="s">
         <v>322</v>
       </c>
-      <c r="P19" s="5" t="b">
+      <c r="P19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2976,7 +2979,7 @@
       <c r="O20" t="s">
         <v>332</v>
       </c>
-      <c r="P20" s="5" t="b">
+      <c r="P20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +3029,7 @@
       <c r="O21" t="s">
         <v>353</v>
       </c>
-      <c r="P21" s="5" t="b">
+      <c r="P21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3076,7 +3079,7 @@
       <c r="O22" t="s">
         <v>373</v>
       </c>
-      <c r="P22" s="5" t="b">
+      <c r="P22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3099,7 +3102,7 @@
       <c r="O23" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="5" t="b">
+      <c r="P23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3122,7 +3125,7 @@
       <c r="O24" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="5" t="b">
+      <c r="P24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3148,7 @@
       <c r="O25" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="5" t="b">
+      <c r="P25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3168,7 +3171,7 @@
       <c r="O26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="5" t="b">
+      <c r="P26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3191,7 +3194,7 @@
       <c r="O27" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="5" t="b">
+      <c r="P27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3214,7 +3217,7 @@
       <c r="O28" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="5" t="b">
+      <c r="P28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3237,7 +3240,7 @@
       <c r="O29" t="s">
         <v>56</v>
       </c>
-      <c r="P29" s="5" t="b">
+      <c r="P29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3260,7 +3263,7 @@
       <c r="O30" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="5" t="b">
+      <c r="P30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3286,7 @@
       <c r="O31" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="5" t="b">
+      <c r="P31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3306,7 +3309,7 @@
       <c r="O32" t="s">
         <v>134</v>
       </c>
-      <c r="P32" s="5" t="b">
+      <c r="P32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3338,7 +3341,7 @@
       <c r="O33" t="s">
         <v>146</v>
       </c>
-      <c r="P33" s="5" t="b">
+      <c r="P33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3370,7 +3373,7 @@
       <c r="O34" t="s">
         <v>166</v>
       </c>
-      <c r="P34" s="5" t="b">
+      <c r="P34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3402,7 +3405,7 @@
       <c r="O35" t="s">
         <v>201</v>
       </c>
-      <c r="P35" s="5" t="b">
+      <c r="P35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +3437,7 @@
       <c r="O36" t="s">
         <v>228</v>
       </c>
-      <c r="P36" s="5" t="b">
+      <c r="P36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3466,7 +3469,7 @@
       <c r="O37" t="s">
         <v>239</v>
       </c>
-      <c r="P37" s="5" t="b">
+      <c r="P37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3498,7 +3501,7 @@
       <c r="O38" t="s">
         <v>257</v>
       </c>
-      <c r="P38" s="5" t="b">
+      <c r="P38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3530,7 +3533,7 @@
       <c r="O39" t="s">
         <v>306</v>
       </c>
-      <c r="P39" s="5" t="b">
+      <c r="P39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3565,7 @@
       <c r="O40" t="s">
         <v>319</v>
       </c>
-      <c r="P40" s="5" t="b">
+      <c r="P40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3594,7 +3597,7 @@
       <c r="O41" t="s">
         <v>342</v>
       </c>
-      <c r="P41" s="5" t="b">
+      <c r="P41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +3629,7 @@
       <c r="O42" t="s">
         <v>350</v>
       </c>
-      <c r="P42" s="5" t="b">
+      <c r="P42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3658,7 +3661,7 @@
       <c r="O43" t="s">
         <v>378</v>
       </c>
-      <c r="P43" s="5" t="b">
+      <c r="P43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3681,7 +3684,7 @@
       <c r="O44" t="s">
         <v>226</v>
       </c>
-      <c r="P44" s="5" t="b">
+      <c r="P44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +3707,7 @@
       <c r="O45" t="s">
         <v>224</v>
       </c>
-      <c r="P45" s="5" t="b">
+      <c r="P45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3727,7 +3730,7 @@
       <c r="O46" t="s">
         <v>386</v>
       </c>
-      <c r="P46" s="5" t="b">
+      <c r="P46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3750,7 +3753,7 @@
       <c r="O47" t="s">
         <v>388</v>
       </c>
-      <c r="P47" s="5" t="b">
+      <c r="P47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3773,7 +3776,7 @@
       <c r="O48" t="s">
         <v>390</v>
       </c>
-      <c r="P48" s="5" t="b">
+      <c r="P48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3796,7 +3799,7 @@
       <c r="O49" t="s">
         <v>392</v>
       </c>
-      <c r="P49" s="5" t="b">
+      <c r="P49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3828,7 +3831,7 @@
       <c r="O50" t="s">
         <v>394</v>
       </c>
-      <c r="P50" s="5" t="b">
+      <c r="P50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3860,7 +3863,7 @@
       <c r="O51" t="s">
         <v>397</v>
       </c>
-      <c r="P51" s="5" t="b">
+      <c r="P51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3892,7 +3895,7 @@
       <c r="O52" t="s">
         <v>400</v>
       </c>
-      <c r="P52" s="5" t="b">
+      <c r="P52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3924,7 +3927,7 @@
       <c r="O53" t="s">
         <v>403</v>
       </c>
-      <c r="P53" s="5" t="b">
+      <c r="P53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3965,7 +3968,7 @@
       <c r="O54" t="s">
         <v>406</v>
       </c>
-      <c r="P54" s="5" t="b">
+      <c r="P54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4006,7 +4009,7 @@
       <c r="O55" t="s">
         <v>410</v>
       </c>
-      <c r="P55" s="5" t="b">
+      <c r="P55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4047,7 +4050,7 @@
       <c r="O56" t="s">
         <v>414</v>
       </c>
-      <c r="P56" s="5" t="b">
+      <c r="P56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4088,7 +4091,7 @@
       <c r="O57" t="s">
         <v>418</v>
       </c>
-      <c r="P57" s="5" t="b">
+      <c r="P57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4138,7 +4141,7 @@
       <c r="O58" t="s">
         <v>422</v>
       </c>
-      <c r="P58" s="5" t="b">
+      <c r="P58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4188,7 +4191,7 @@
       <c r="O59" t="s">
         <v>427</v>
       </c>
-      <c r="P59" s="5" t="b">
+      <c r="P59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4238,7 +4241,7 @@
       <c r="O60" t="s">
         <v>432</v>
       </c>
-      <c r="P60" s="5" t="b">
+      <c r="P60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4288,7 +4291,7 @@
       <c r="O61" t="s">
         <v>437</v>
       </c>
-      <c r="P61" s="5" t="b">
+      <c r="P61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4338,7 +4341,7 @@
       <c r="O62" t="s">
         <v>442</v>
       </c>
-      <c r="P62" s="5" t="b">
+      <c r="P62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4388,7 +4391,7 @@
       <c r="O63" t="s">
         <v>345</v>
       </c>
-      <c r="P63" s="5" t="b">
+      <c r="P63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4441,7 @@
       <c r="O64" t="s">
         <v>381</v>
       </c>
-      <c r="P64" s="5" t="b">
+      <c r="P64" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DataSets/PriceBlotterCDSIndex.xlsx
+++ b/DataSets/PriceBlotterCDSIndex.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/Code/adaptableblotter-demo/DataSets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="32780" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="CDSIndexPrice" sheetId="3" r:id="rId1"/>
@@ -12,11 +17,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -1909,10 +1914,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2230,7 +2236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2240,20 +2246,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>447</v>
       </c>
@@ -2261,28 +2268,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>452</v>
@@ -2299,11 +2306,11 @@
       <c r="O1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2322,11 +2329,11 @@
       <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2345,11 +2352,11 @@
       <c r="O3" t="s">
         <v>153</v>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2368,11 +2375,11 @@
       <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2391,11 +2398,11 @@
       <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2414,11 +2421,11 @@
       <c r="O6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2437,11 +2444,11 @@
       <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2469,11 +2476,11 @@
       <c r="O8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2501,11 +2508,11 @@
       <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2533,11 +2540,11 @@
       <c r="O10" t="s">
         <v>101</v>
       </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2565,11 +2572,11 @@
       <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2606,11 +2613,11 @@
       <c r="O12" t="s">
         <v>142</v>
       </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2647,11 +2654,11 @@
       <c r="O13" t="s">
         <v>158</v>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2688,11 +2695,11 @@
       <c r="O14" t="s">
         <v>197</v>
       </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2729,11 +2736,11 @@
       <c r="O15" t="s">
         <v>235</v>
       </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2779,11 +2786,11 @@
       <c r="O16" t="s">
         <v>242</v>
       </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2829,11 +2836,11 @@
       <c r="O17" t="s">
         <v>260</v>
       </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2879,11 +2886,11 @@
       <c r="O18" t="s">
         <v>309</v>
       </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2929,11 +2936,11 @@
       <c r="O19" t="s">
         <v>322</v>
       </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2979,11 +2986,11 @@
       <c r="O20" t="s">
         <v>332</v>
       </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3029,11 +3036,11 @@
       <c r="O21" t="s">
         <v>353</v>
       </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3079,11 +3086,11 @@
       <c r="O22" t="s">
         <v>373</v>
       </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3102,11 +3109,11 @@
       <c r="O23" t="s">
         <v>17</v>
       </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3125,11 +3132,11 @@
       <c r="O24" t="s">
         <v>22</v>
       </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3148,11 +3155,11 @@
       <c r="O25" t="s">
         <v>26</v>
       </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3171,11 +3178,11 @@
       <c r="O26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3194,11 +3201,11 @@
       <c r="O27" t="s">
         <v>52</v>
       </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3217,11 +3224,11 @@
       <c r="O28" t="s">
         <v>54</v>
       </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3240,11 +3247,11 @@
       <c r="O29" t="s">
         <v>56</v>
       </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="P29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3263,11 +3270,11 @@
       <c r="O30" t="s">
         <v>71</v>
       </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="P30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3286,11 +3293,11 @@
       <c r="O31" t="s">
         <v>96</v>
       </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3309,11 +3316,11 @@
       <c r="O32" t="s">
         <v>134</v>
       </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -3341,11 +3348,11 @@
       <c r="O33" t="s">
         <v>146</v>
       </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -3373,11 +3380,11 @@
       <c r="O34" t="s">
         <v>166</v>
       </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -3405,11 +3412,11 @@
       <c r="O35" t="s">
         <v>201</v>
       </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -3437,11 +3444,11 @@
       <c r="O36" t="s">
         <v>228</v>
       </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -3469,11 +3476,11 @@
       <c r="O37" t="s">
         <v>239</v>
       </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -3501,11 +3508,11 @@
       <c r="O38" t="s">
         <v>257</v>
       </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -3533,11 +3540,11 @@
       <c r="O39" t="s">
         <v>306</v>
       </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -3565,11 +3572,11 @@
       <c r="O40" t="s">
         <v>319</v>
       </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3597,11 +3604,11 @@
       <c r="O41" t="s">
         <v>342</v>
       </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -3629,11 +3636,11 @@
       <c r="O42" t="s">
         <v>350</v>
       </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -3661,11 +3668,11 @@
       <c r="O43" t="s">
         <v>378</v>
       </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3684,11 +3691,11 @@
       <c r="O44" t="s">
         <v>226</v>
       </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3707,11 +3714,11 @@
       <c r="O45" t="s">
         <v>224</v>
       </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3730,11 +3737,11 @@
       <c r="O46" t="s">
         <v>386</v>
       </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3753,11 +3760,11 @@
       <c r="O47" t="s">
         <v>388</v>
       </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3776,11 +3783,11 @@
       <c r="O48" t="s">
         <v>390</v>
       </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3799,11 +3806,11 @@
       <c r="O49" t="s">
         <v>392</v>
       </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3831,11 +3838,11 @@
       <c r="O50" t="s">
         <v>394</v>
       </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3863,11 +3870,11 @@
       <c r="O51" t="s">
         <v>397</v>
       </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="P51" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3895,11 +3902,11 @@
       <c r="O52" t="s">
         <v>400</v>
       </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3927,11 +3934,11 @@
       <c r="O53" t="s">
         <v>403</v>
       </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="P53" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3968,11 +3975,11 @@
       <c r="O54" t="s">
         <v>406</v>
       </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="P54" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4009,11 +4016,11 @@
       <c r="O55" t="s">
         <v>410</v>
       </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4050,11 +4057,11 @@
       <c r="O56" t="s">
         <v>414</v>
       </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4091,11 +4098,11 @@
       <c r="O57" t="s">
         <v>418</v>
       </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="P57" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4141,11 +4148,11 @@
       <c r="O58" t="s">
         <v>422</v>
       </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="P58" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4191,11 +4198,11 @@
       <c r="O59" t="s">
         <v>427</v>
       </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4241,11 +4248,11 @@
       <c r="O60" t="s">
         <v>432</v>
       </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4291,11 +4298,11 @@
       <c r="O61" t="s">
         <v>437</v>
       </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="P61" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4341,11 +4348,11 @@
       <c r="O62" t="s">
         <v>442</v>
       </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4391,11 +4398,11 @@
       <c r="O63" t="s">
         <v>345</v>
       </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="P63" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4441,26 +4448,21 @@
       <c r="O64" t="s">
         <v>381</v>
       </c>
-      <c r="P64" t="b">
+      <c r="P64" s="3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:Q64">
+  <sortState ref="A1:U64">
     <sortCondition ref="A1:A64"/>
     <sortCondition ref="B1:B64"/>
-    <sortCondition ref="C1:C64"/>
-    <sortCondition ref="D1:D64"/>
-    <sortCondition ref="E1:E64"/>
-    <sortCondition ref="F1:F64"/>
+    <sortCondition ref="G1:G64"/>
+    <sortCondition ref="H1:H64"/>
+    <sortCondition ref="I1:I64"/>
+    <sortCondition ref="J1:J64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4472,7 +4474,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -4486,7 +4488,7 @@
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>447</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>1.92573222284304E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>1.92573222284304E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>3.3572760093665398E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>3.3572760093665398E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>3.8932974723849302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>3.8932974723849302E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>7.9378313177125206E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>7.6443065583720804E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>8.0732337492083299E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4838,7 +4840,7 @@
         <v>8.9669483942607202E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>1.8575812070809002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>9.5591827792198304E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>1.15231796524594E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>1.0026677509930901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>8.6637215685837193E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>1.06956033565501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>8.2665276660324992E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>1.12424350131678E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>1.8354451143667499E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>7.9436362364501203E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>1.05044239648238E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>2.9412638892014E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>6.0822062478195901E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>1.05483887500574E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>3.3479033836787101E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>6.3256273300072701E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>1.0674582225699E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>3.9662655812541404E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5446,7 +5448,7 @@
         <v>6.8580123925151499E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>1.1029918561054E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>2.38716470044086E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>4.4713408982800899E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>7.5006179255964001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>1.1043048701398399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>2.3008679783216301E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>5.1646192461741701E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>8.0742284983667603E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>1.1312732254324E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>2.8506258795824701E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>5.72316220291151E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>8.7157416118066808E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>1.1882781098749601E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>3.9613422155401496E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>6.8268314239689296E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>9.6739497290443104E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>1.222181170686E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -6022,7 +6024,7 @@
         <v>4.5758539628816897E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>7.6117267090422703E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -6086,7 +6088,7 @@
         <v>1.0362332080842199E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -6118,7 +6120,7 @@
         <v>1.2024427684104499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>5.2784380822277002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>8.1795991320831804E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>1.04787979282708E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>1.16158495524187E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>5.3382030293634497E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>8.2169150200523001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>1.02488358455914E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>1.6762176684112898E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>1.6352083006237899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>1.7169159980757201E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>1.5133715498388E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>1.45966815883772E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>1.5318000343827E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>1.5770520441706199E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>1.6608422765010102E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>1.72012942845035E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>1.8003898135358899E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>1.93751037376057E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>1.3592890803289501E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>1.97218831592086E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>1.3457416164892801E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>1.9520180242482001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>1.3788192340587899E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>1.7828941286516999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>1.0936923607378799E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>1.8233382329358699E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>1.15059615771387E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>1.85300413549945E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>1.24383366258868E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -7078,7 +7080,7 @@
         <v>1.9710839247129599E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>1.3531243474431199E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>2.3595781246696802E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>1.7746969433875801E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>2.30632989629149E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>1.8024055481121001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>2.34840134173303E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>1.9275120404733E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>2.3629506509741299E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -7366,7 +7368,7 @@
         <v>2.0141825571130499E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>5.1629799293405002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>5.16318792893303E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>5.1631567465225004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>5.1631567465225004E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -7526,7 +7528,7 @@
         <v>5.1629487434540896E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>5.1629487434540896E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>3.2839303925237602E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>3.2839303925237602E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -7750,7 +7752,7 @@
         <v>3.2839270998436802E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -7782,7 +7784,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -8006,7 +8008,7 @@
         <v>2.2239691821851499E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -8038,7 +8040,7 @@
         <v>2.22804462502364E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -8230,7 +8232,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>9.4233111467820693E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>9.4297803653687895E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -8390,7 +8392,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -8422,7 +8424,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -8582,7 +8584,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>1.0410332636543E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>1.0399186682541301E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -8710,7 +8712,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -8870,7 +8872,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>1.0254444548904101E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -8966,7 +8968,7 @@
         <v>1.0239524342385E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -8998,7 +9000,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -9094,7 +9096,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>1.1254743616956501E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -9190,7 +9192,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -9254,7 +9256,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -9286,7 +9288,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>4.7635605439084001E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -9478,7 +9480,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>1.16735844864165E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>1.16552204612536E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -9606,7 +9608,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>4.4004651933634304E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -9734,7 +9736,7 @@
         <v>4.4447043154008702E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -9766,7 +9768,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -9862,7 +9864,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -9894,7 +9896,7 @@
         <v>1.27662001846044E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>1.27462430969094E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -10022,7 +10024,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -10054,7 +10056,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>5.4342438020974996E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>5.4709872003982198E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -10182,7 +10184,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -10246,7 +10248,7 @@
         <v>1.6687574218817901E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>1.6666564153215501E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -10310,7 +10312,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -10342,7 +10344,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -10406,7 +10408,7 @@
         <v>9.3348104279471801E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>9.3406346004401807E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10470,7 +10472,7 @@
         <v>1.83761472622214E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>1.8378019074837399E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -10534,7 +10536,7 @@
         <v>1.8351073550780899E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>5.6948119288556497E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>5.7182140849699999E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -10630,7 +10632,7 @@
         <v>5.7709706702955303E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>1.05888558392016E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>1.05934986675021E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -10726,7 +10728,7 @@
         <v>1.0580973294879399E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -10758,7 +10760,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>2.33926975129858E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -10854,7 +10856,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -10918,7 +10920,7 @@
         <v>2.8551658240970099E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -10982,7 +10984,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -11014,7 +11016,7 @@
         <v>1.9206548458349602E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -11110,7 +11112,7 @@
         <v>2.4124069911757098E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -11142,7 +11144,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -11174,7 +11176,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>2.01367438924995E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -11238,7 +11240,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -11270,7 +11272,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -11302,7 +11304,7 @@
         <v>1.9100388705320701E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -11334,7 +11336,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -11366,7 +11368,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -11398,7 +11400,7 @@
         <v>2.5179490579065301E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -11430,7 +11432,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -11462,7 +11464,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>1.8800390102747599E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -11526,7 +11528,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -11558,7 +11560,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>2.03153278306623E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -11654,7 +11656,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -11686,7 +11688,7 @@
         <v>2.6521784043093299E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -11718,7 +11720,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -11750,7 +11752,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>4.6311081153606701E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -11814,7 +11816,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -11878,7 +11880,7 @@
         <v>1.8439889666227501E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -11910,7 +11912,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -11942,7 +11944,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -11974,7 +11976,7 @@
         <v>2.1629221291661501E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -12006,7 +12008,7 @@
         <v>2.6152342395283499E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -12038,7 +12040,7 @@
         <v>2.6152342395283499E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -12070,7 +12072,7 @@
         <v>2.7213066382189E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>2.7213066382189E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -12134,7 +12136,7 @@
         <v>1.86643067918634E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -12166,7 +12168,7 @@
         <v>1.86643067918634E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>2.2135643394115698E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -12230,7 +12232,7 @@
         <v>2.2135643394115698E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -12262,7 +12264,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -12294,7 +12296,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -12326,7 +12328,7 @@
         <v>2.9142758117436499E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -12358,7 +12360,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -12390,7 +12392,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -12422,7 +12424,7 @@
         <v>1.91013444580681E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -12454,7 +12456,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -12486,7 +12488,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -12518,7 +12520,7 @@
         <v>2.0561585272954999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -12550,7 +12552,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -12614,7 +12616,7 @@
         <v>2.5329595479434398E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -12646,7 +12648,7 @@
         <v>3.9659404586358103E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -12678,7 +12680,7 @@
         <v>3.9605046638379202E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>3.9605046638379202E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -12742,7 +12744,7 @@
         <v>3.1958482267112502E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -12774,7 +12776,7 @@
         <v>3.1477241335471397E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -12806,7 +12808,7 @@
         <v>3.1477241335471397E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -12838,7 +12840,7 @@
         <v>3.37698220747807E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -12870,7 +12872,7 @@
         <v>3.3671394520166202E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -12902,7 +12904,7 @@
         <v>3.3671394520166202E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -12934,7 +12936,7 @@
         <v>3.7718869842517898E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -12966,7 +12968,7 @@
         <v>3.7675516712142101E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -12998,7 +13000,7 @@
         <v>3.7675516712142101E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -13030,7 +13032,7 @@
         <v>3.9228153500307499E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -13062,7 +13064,7 @@
         <v>3.9213639350885898E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -13094,7 +13096,7 @@
         <v>3.9213639350885898E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -13126,7 +13128,7 @@
         <v>2.9159207696595E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>2.9104672430977099E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -13190,7 +13192,7 @@
         <v>2.9104672430977099E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -13222,7 +13224,7 @@
         <v>3.3593909410263197E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -13254,7 +13256,7 @@
         <v>3.3625608887559402E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -13286,7 +13288,7 @@
         <v>3.3625608887559402E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -13318,7 +13320,7 @@
         <v>3.7589367148340602E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>3.7586231495436898E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -13382,7 +13384,7 @@
         <v>3.7586231495436898E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -13414,7 +13416,7 @@
         <v>4.0798601403784197E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -13446,7 +13448,7 @@
         <v>3.10026503690051E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -13478,7 +13480,7 @@
         <v>3.6077238364814697E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>3.9459153635906602E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>3.9074227505774099E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -13574,7 +13576,7 @@
         <v>2.5993098648778402E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -13606,7 +13608,7 @@
         <v>3.3918175338510298E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -13646,10 +13648,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>